--- a/data/features_optimized.xlsx
+++ b/data/features_optimized.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q322"/>
+  <dimension ref="A1:P322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,25 +496,20 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>HB_Match</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
           <t>Delta_MolMR</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>CSP3_2</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Inv_T</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>χ-result</t>
         </is>
@@ -558,18 +553,15 @@
         <v>31.23</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>14.70539999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>14.70539999999999</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8571428571428571</v>
+        <v>2.335630036202266</v>
       </c>
       <c r="P2" t="n">
-        <v>2.335630036202266</v>
-      </c>
-      <c r="Q2" t="n">
         <v>0.04294055821557866</v>
       </c>
     </row>
@@ -611,18 +603,15 @@
         <v>7.84</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>15.08599999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>15.08599999999999</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.363228169679783</v>
       </c>
       <c r="P3" t="n">
-        <v>2.363228169679783</v>
-      </c>
-      <c r="Q3" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -664,18 +653,15 @@
         <v>9.23</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.240999999999996</v>
       </c>
       <c r="N4" t="n">
-        <v>1.240999999999996</v>
+        <v>0.75</v>
       </c>
       <c r="O4" t="n">
-        <v>0.75</v>
+        <v>2.363228169679783</v>
       </c>
       <c r="P4" t="n">
-        <v>2.363228169679783</v>
-      </c>
-      <c r="Q4" t="n">
         <v>-0.45</v>
       </c>
     </row>
@@ -717,18 +703,15 @@
         <v>18.97</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>7.205200000000001</v>
       </c>
       <c r="N5" t="n">
-        <v>7.205200000000001</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P5" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q5" t="n">
         <v>0.464598356531947</v>
       </c>
     </row>
@@ -770,18 +753,15 @@
         <v>9.23</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>4.265999999999998</v>
       </c>
       <c r="N6" t="n">
-        <v>4.265999999999998</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="P6" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="Q6" t="n">
         <v>3.34</v>
       </c>
     </row>
@@ -823,18 +803,15 @@
         <v>9.23</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>32.11200000000004</v>
       </c>
       <c r="N7" t="n">
-        <v>32.11200000000004</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="P7" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="Q7" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -876,18 +853,15 @@
         <v>9.23</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>59.81400000000006</v>
       </c>
       <c r="N8" t="n">
-        <v>59.81400000000006</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="P8" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="Q8" t="n">
         <v>-0.38</v>
       </c>
     </row>
@@ -929,18 +903,15 @@
         <v>20.23</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.664800000000007</v>
       </c>
       <c r="N9" t="n">
-        <v>1.664800000000007</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P9" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q9" t="n">
         <v>0.68</v>
       </c>
     </row>
@@ -982,18 +953,15 @@
         <v>13.77</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>11.39399999999999</v>
       </c>
       <c r="N10" t="n">
-        <v>11.39399999999999</v>
+        <v>0.25</v>
       </c>
       <c r="O10" t="n">
-        <v>0.25</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P10" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q10" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -1035,18 +1003,15 @@
         <v>9.23</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.3409999999999975</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3409999999999975</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P11" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q11" t="n">
         <v>0.399</v>
       </c>
     </row>
@@ -1088,18 +1053,15 @@
         <v>9.23</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.3409999999999975</v>
       </c>
       <c r="N12" t="n">
-        <v>0.3409999999999975</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P12" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q12" t="n">
         <v>0.403</v>
       </c>
     </row>
@@ -1141,18 +1103,15 @@
         <v>9.23</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.3409999999999975</v>
       </c>
       <c r="N13" t="n">
-        <v>0.3409999999999975</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>3.047386865762609</v>
       </c>
       <c r="P13" t="n">
-        <v>3.047386865762609</v>
-      </c>
-      <c r="Q13" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -1194,18 +1153,15 @@
         <v>9.23</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>0.3409999999999975</v>
       </c>
       <c r="N14" t="n">
-        <v>0.3409999999999975</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P14" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q14" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -1247,18 +1203,15 @@
         <v>9.23</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.3409999999999975</v>
       </c>
       <c r="N15" t="n">
-        <v>0.3409999999999975</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P15" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q15" t="n">
         <v>0.411</v>
       </c>
     </row>
@@ -1300,18 +1253,15 @@
         <v>9.23</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>0.3409999999999975</v>
       </c>
       <c r="N16" t="n">
-        <v>0.3409999999999975</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>3.047386865762609</v>
       </c>
       <c r="P16" t="n">
-        <v>3.047386865762609</v>
-      </c>
-      <c r="Q16" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -1353,18 +1303,15 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>2.690999999999995</v>
       </c>
       <c r="N17" t="n">
-        <v>2.690999999999995</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P17" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q17" t="n">
         <v>0.394</v>
       </c>
     </row>
@@ -1406,18 +1353,15 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>2.690999999999995</v>
       </c>
       <c r="N18" t="n">
-        <v>2.690999999999995</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P18" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q18" t="n">
         <v>0.373</v>
       </c>
     </row>
@@ -1459,18 +1403,15 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>2.690999999999995</v>
       </c>
       <c r="N19" t="n">
-        <v>2.690999999999995</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>3.047386865762609</v>
       </c>
       <c r="P19" t="n">
-        <v>3.047386865762609</v>
-      </c>
-      <c r="Q19" t="n">
         <v>0.395</v>
       </c>
     </row>
@@ -1512,18 +1453,15 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>2.690999999999995</v>
       </c>
       <c r="N20" t="n">
-        <v>2.690999999999995</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P20" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q20" t="n">
         <v>0.437</v>
       </c>
     </row>
@@ -1565,18 +1503,15 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>2.690999999999995</v>
       </c>
       <c r="N21" t="n">
-        <v>2.690999999999995</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P21" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q21" t="n">
         <v>0.438</v>
       </c>
     </row>
@@ -1618,18 +1553,15 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>2.690999999999995</v>
       </c>
       <c r="N22" t="n">
-        <v>2.690999999999995</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>3.047386865762609</v>
       </c>
       <c r="P22" t="n">
-        <v>3.047386865762609</v>
-      </c>
-      <c r="Q22" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -1671,18 +1603,15 @@
         <v>26.3</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>28.40300000000005</v>
       </c>
       <c r="N23" t="n">
-        <v>28.40300000000005</v>
+        <v>0.4</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P23" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q23" t="n">
         <v>0.09654238444482348</v>
       </c>
     </row>
@@ -1724,18 +1653,15 @@
         <v>26.3</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>28.40300000000005</v>
       </c>
       <c r="N24" t="n">
-        <v>28.40300000000005</v>
+        <v>0.4</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4</v>
+        <v>3.298697014679202</v>
       </c>
       <c r="P24" t="n">
-        <v>3.298697014679202</v>
-      </c>
-      <c r="Q24" t="n">
         <v>0.09190631700478312</v>
       </c>
     </row>
@@ -1777,18 +1703,15 @@
         <v>26.3</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>28.40300000000005</v>
       </c>
       <c r="N25" t="n">
-        <v>28.40300000000005</v>
+        <v>0.4</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P25" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q25" t="n">
         <v>0.08756634200862208</v>
       </c>
     </row>
@@ -1830,18 +1753,15 @@
         <v>26.3</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>28.40300000000005</v>
       </c>
       <c r="N26" t="n">
-        <v>28.40300000000005</v>
+        <v>0.4</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4</v>
+        <v>3.094538140182578</v>
       </c>
       <c r="P26" t="n">
-        <v>3.094538140182578</v>
-      </c>
-      <c r="Q26" t="n">
         <v>0.08349497137552221</v>
       </c>
     </row>
@@ -1883,18 +1803,15 @@
         <v>37.3</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>14.08320000000002</v>
       </c>
       <c r="N27" t="n">
-        <v>14.08320000000002</v>
+        <v>0.25</v>
       </c>
       <c r="O27" t="n">
-        <v>0.25</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P27" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q27" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -1936,18 +1853,15 @@
         <v>5.790000000000006</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>1.558600000000002</v>
       </c>
       <c r="N28" t="n">
-        <v>1.558600000000002</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P28" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q28" t="n">
         <v>0.505</v>
       </c>
     </row>
@@ -1989,18 +1903,15 @@
         <v>9.23</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>32.11200000000004</v>
       </c>
       <c r="N29" t="n">
-        <v>32.11200000000004</v>
+        <v>0.6</v>
       </c>
       <c r="O29" t="n">
-        <v>0.6</v>
+        <v>3.376667229444538</v>
       </c>
       <c r="P29" t="n">
-        <v>3.376667229444538</v>
-      </c>
-      <c r="Q29" t="n">
         <v>1.04</v>
       </c>
     </row>
@@ -2042,18 +1953,15 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>30.81800000000004</v>
       </c>
       <c r="N30" t="n">
-        <v>30.81800000000004</v>
+        <v>0.6</v>
       </c>
       <c r="O30" t="n">
-        <v>0.6</v>
+        <v>3.376667229444538</v>
       </c>
       <c r="P30" t="n">
-        <v>3.376667229444538</v>
-      </c>
-      <c r="Q30" t="n">
         <v>0.99</v>
       </c>
     </row>
@@ -2095,18 +2003,15 @@
         <v>9.23</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>16.48000000000001</v>
       </c>
       <c r="N31" t="n">
-        <v>16.48000000000001</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>3.376667229444538</v>
       </c>
       <c r="P31" t="n">
-        <v>3.376667229444538</v>
-      </c>
-      <c r="Q31" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -2148,18 +2053,15 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>15.18600000000001</v>
       </c>
       <c r="N32" t="n">
-        <v>15.18600000000001</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>3.376667229444538</v>
       </c>
       <c r="P32" t="n">
-        <v>3.376667229444538</v>
-      </c>
-      <c r="Q32" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -2201,18 +2103,15 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>15.63200000000003</v>
       </c>
       <c r="N33" t="n">
-        <v>15.63200000000003</v>
+        <v>0.6</v>
       </c>
       <c r="O33" t="n">
-        <v>0.6</v>
+        <v>3.376667229444538</v>
       </c>
       <c r="P33" t="n">
-        <v>3.376667229444538</v>
-      </c>
-      <c r="Q33" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -2254,18 +2153,15 @@
         <v>57.53</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>39.50540000000004</v>
       </c>
       <c r="N34" t="n">
-        <v>39.50540000000004</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O34" t="n">
-        <v>0.6666666666666666</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P34" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q34" t="n">
         <v>0.4620610430991112</v>
       </c>
     </row>
@@ -2307,18 +2203,15 @@
         <v>26.3</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>9.703000000000021</v>
       </c>
       <c r="N35" t="n">
-        <v>9.703000000000021</v>
+        <v>0.4</v>
       </c>
       <c r="O35" t="n">
-        <v>0.4</v>
+        <v>2.420428415829602</v>
       </c>
       <c r="P35" t="n">
-        <v>2.420428415829602</v>
-      </c>
-      <c r="Q35" t="n">
         <v>0.02784662955343096</v>
       </c>
     </row>
@@ -2360,18 +2253,15 @@
         <v>26.3</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>7.106000000000023</v>
       </c>
       <c r="N36" t="n">
-        <v>7.106000000000023</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="O36" t="n">
-        <v>0.8333333333333334</v>
+        <v>5.988023952095809</v>
       </c>
       <c r="P36" t="n">
-        <v>5.988023952095809</v>
-      </c>
-      <c r="Q36" t="n">
         <v>1.554065868263473</v>
       </c>
     </row>
@@ -2413,18 +2303,15 @@
         <v>26.3</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>9.942000000000011</v>
       </c>
       <c r="N37" t="n">
-        <v>9.942000000000011</v>
+        <v>0.4</v>
       </c>
       <c r="O37" t="n">
-        <v>0.4</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P37" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q37" t="n">
         <v>0.3305805901415658</v>
       </c>
     </row>
@@ -2466,18 +2353,15 @@
         <v>26.3</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>9.942000000000011</v>
       </c>
       <c r="N38" t="n">
-        <v>9.942000000000011</v>
+        <v>0.4</v>
       </c>
       <c r="O38" t="n">
-        <v>0.4</v>
+        <v>3.298697014679202</v>
       </c>
       <c r="P38" t="n">
-        <v>3.298697014679202</v>
-      </c>
-      <c r="Q38" t="n">
         <v>0.3143318489196768</v>
       </c>
     </row>
@@ -2519,18 +2403,15 @@
         <v>26.3</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>9.942000000000011</v>
       </c>
       <c r="N39" t="n">
-        <v>9.942000000000011</v>
+        <v>0.4</v>
       </c>
       <c r="O39" t="n">
-        <v>0.4</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P39" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q39" t="n">
         <v>0.299120868593326</v>
       </c>
     </row>
@@ -2572,18 +2453,15 @@
         <v>26.3</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>9.942000000000011</v>
       </c>
       <c r="N40" t="n">
-        <v>9.942000000000011</v>
+        <v>0.4</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4</v>
+        <v>3.094538140182578</v>
       </c>
       <c r="P40" t="n">
-        <v>3.094538140182578</v>
-      </c>
-      <c r="Q40" t="n">
         <v>0.2848513074423643</v>
       </c>
     </row>
@@ -2625,18 +2503,15 @@
         <v>7.84</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>21.82299999999999</v>
       </c>
       <c r="N41" t="n">
-        <v>21.82299999999999</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>3.194888178913738</v>
       </c>
       <c r="P41" t="n">
-        <v>3.194888178913738</v>
-      </c>
-      <c r="Q41" t="n">
         <v>1.499</v>
       </c>
     </row>
@@ -2678,18 +2553,15 @@
         <v>20.23</v>
       </c>
       <c r="M42" t="n">
-        <v>2</v>
+        <v>6.028799999999997</v>
       </c>
       <c r="N42" t="n">
-        <v>6.028799999999997</v>
+        <v>0.25</v>
       </c>
       <c r="O42" t="n">
-        <v>0.25</v>
+        <v>3.412969283276451</v>
       </c>
       <c r="P42" t="n">
-        <v>3.412969283276451</v>
-      </c>
-      <c r="Q42" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2731,18 +2603,15 @@
         <v>20.23</v>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
+        <v>26.29020000000005</v>
       </c>
       <c r="N43" t="n">
-        <v>26.29020000000005</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="O43" t="n">
-        <v>0.7272727272727273</v>
+        <v>3.412969283276451</v>
       </c>
       <c r="P43" t="n">
-        <v>3.412969283276451</v>
-      </c>
-      <c r="Q43" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -2784,18 +2653,15 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>32.31900000000005</v>
       </c>
       <c r="N44" t="n">
-        <v>32.31900000000005</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="O44" t="n">
-        <v>0.7272727272727273</v>
+        <v>3.412969283276451</v>
       </c>
       <c r="P44" t="n">
-        <v>3.412969283276451</v>
-      </c>
-      <c r="Q44" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
@@ -2837,18 +2703,15 @@
         <v>64.89</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>33.14360000000003</v>
       </c>
       <c r="N45" t="n">
-        <v>33.14360000000003</v>
+        <v>0.7</v>
       </c>
       <c r="O45" t="n">
-        <v>0.7</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P45" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q45" t="n">
         <v>0.5940644721132526</v>
       </c>
     </row>
@@ -2890,18 +2753,15 @@
         <v>64.89</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>33.14360000000003</v>
       </c>
       <c r="N46" t="n">
-        <v>33.14360000000003</v>
+        <v>0.7</v>
       </c>
       <c r="O46" t="n">
-        <v>0.7</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P46" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q46" t="n">
         <v>0.5068684973563022</v>
       </c>
     </row>
@@ -2943,18 +2803,15 @@
         <v>64.89</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>33.14360000000003</v>
       </c>
       <c r="N47" t="n">
-        <v>33.14360000000003</v>
+        <v>0.7</v>
       </c>
       <c r="O47" t="n">
-        <v>0.7</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P47" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q47" t="n">
         <v>0.5332236056626301</v>
       </c>
     </row>
@@ -2996,18 +2853,15 @@
         <v>64.89</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>33.14360000000003</v>
       </c>
       <c r="N48" t="n">
-        <v>33.14360000000003</v>
+        <v>0.7</v>
       </c>
       <c r="O48" t="n">
-        <v>0.7</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P48" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q48" t="n">
         <v>0.5617277844107113</v>
       </c>
     </row>
@@ -3052,15 +2906,12 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" t="n">
-        <v>1</v>
+        <v>3.125</v>
       </c>
       <c r="P49" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="Q49" t="n">
         <v>-2.25e-05</v>
       </c>
     </row>
@@ -3105,15 +2956,12 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" t="n">
-        <v>1</v>
+        <v>3.125</v>
       </c>
       <c r="P50" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="Q50" t="n">
         <v>4e-05</v>
       </c>
     </row>
@@ -3155,18 +3003,15 @@
         <v>78.66</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>53.77160000000001</v>
       </c>
       <c r="N51" t="n">
-        <v>53.77160000000001</v>
+        <v>0.625</v>
       </c>
       <c r="O51" t="n">
-        <v>0.625</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P51" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q51" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -3208,18 +3053,15 @@
         <v>78.66</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>43.87760000000002</v>
       </c>
       <c r="N52" t="n">
-        <v>43.87760000000002</v>
+        <v>0.5</v>
       </c>
       <c r="O52" t="n">
-        <v>0.5</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P52" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q52" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -3261,18 +3103,15 @@
         <v>18.97</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>7.205200000000001</v>
       </c>
       <c r="N53" t="n">
-        <v>7.205200000000001</v>
+        <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>2.679887444727322</v>
       </c>
       <c r="P53" t="n">
-        <v>2.679887444727322</v>
-      </c>
-      <c r="Q53" t="n">
         <v>0.3144847916387511</v>
       </c>
     </row>
@@ -3314,18 +3153,15 @@
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>11.52200000000002</v>
       </c>
       <c r="N54" t="n">
-        <v>11.52200000000002</v>
+        <v>0.2</v>
       </c>
       <c r="O54" t="n">
-        <v>0.2</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="P54" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="Q54" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -3367,18 +3203,15 @@
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>11.52200000000002</v>
       </c>
       <c r="N55" t="n">
-        <v>11.52200000000002</v>
+        <v>0.2</v>
       </c>
       <c r="O55" t="n">
-        <v>0.2</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="P55" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="Q55" t="n">
         <v>0.261578947368421</v>
       </c>
     </row>
@@ -3420,18 +3253,15 @@
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>11.52200000000002</v>
       </c>
       <c r="N56" t="n">
-        <v>11.52200000000002</v>
+        <v>0.2</v>
       </c>
       <c r="O56" t="n">
-        <v>0.2</v>
+        <v>3.703703703703704</v>
       </c>
       <c r="P56" t="n">
-        <v>3.703703703703704</v>
-      </c>
-      <c r="Q56" t="n">
         <v>0.1633333333333333</v>
       </c>
     </row>
@@ -3473,18 +3303,15 @@
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>11.52200000000002</v>
       </c>
       <c r="N57" t="n">
-        <v>11.52200000000002</v>
+        <v>0.2</v>
       </c>
       <c r="O57" t="n">
-        <v>0.2</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="P57" t="n">
-        <v>3.225806451612903</v>
-      </c>
-      <c r="Q57" t="n">
         <v>0.1332258064516129</v>
       </c>
     </row>
@@ -3526,18 +3353,15 @@
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>16.13900000000001</v>
       </c>
       <c r="N58" t="n">
-        <v>16.13900000000001</v>
+        <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P58" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q58" t="n">
         <v>0.047</v>
       </c>
     </row>
@@ -3579,18 +3403,15 @@
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>14.98800000000004</v>
       </c>
       <c r="N59" t="n">
-        <v>14.98800000000004</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="O59" t="n">
-        <v>0.1818181818181818</v>
+        <v>2.831657935721365</v>
       </c>
       <c r="P59" t="n">
-        <v>2.831657935721365</v>
-      </c>
-      <c r="Q59" t="n">
         <v>0.03441427155599603</v>
       </c>
     </row>
@@ -3632,18 +3453,15 @@
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>14.98800000000004</v>
       </c>
       <c r="N60" t="n">
-        <v>14.98800000000004</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="O60" t="n">
-        <v>0.1818181818181818</v>
+        <v>2.543558438255119</v>
       </c>
       <c r="P60" t="n">
-        <v>2.543558438255119</v>
-      </c>
-      <c r="Q60" t="n">
         <v>0.03457560727457713</v>
       </c>
     </row>
@@ -3685,18 +3503,15 @@
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>14.98800000000004</v>
       </c>
       <c r="N61" t="n">
-        <v>14.98800000000004</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="O61" t="n">
-        <v>0.1818181818181818</v>
+        <v>2.113494663425975</v>
       </c>
       <c r="P61" t="n">
-        <v>2.113494663425975</v>
-      </c>
-      <c r="Q61" t="n">
         <v>0.03481644298848145</v>
       </c>
     </row>
@@ -3738,18 +3553,15 @@
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>14.98800000000004</v>
       </c>
       <c r="N62" t="n">
-        <v>14.98800000000004</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="O62" t="n">
-        <v>0.1818181818181818</v>
+        <v>1.948747929455325</v>
       </c>
       <c r="P62" t="n">
-        <v>1.948747929455325</v>
-      </c>
-      <c r="Q62" t="n">
         <v>0.03490870115950501</v>
       </c>
     </row>
@@ -3791,18 +3603,15 @@
         <v>57.53</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>1.077399999999994</v>
       </c>
       <c r="N63" t="n">
-        <v>1.077399999999994</v>
+        <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>2.335630036202266</v>
       </c>
       <c r="P63" t="n">
-        <v>2.335630036202266</v>
-      </c>
-      <c r="Q63" t="n">
         <v>0.192</v>
       </c>
     </row>
@@ -3844,18 +3653,15 @@
         <v>52.60000000000001</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>33.34400000000004</v>
       </c>
       <c r="N64" t="n">
-        <v>33.34400000000004</v>
+        <v>0.2</v>
       </c>
       <c r="O64" t="n">
-        <v>0.2</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P64" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q64" t="n">
         <v>1.899727102166127</v>
       </c>
     </row>
@@ -3897,18 +3703,15 @@
         <v>52.60000000000001</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>33.34400000000004</v>
       </c>
       <c r="N65" t="n">
-        <v>33.34400000000004</v>
+        <v>0.2</v>
       </c>
       <c r="O65" t="n">
-        <v>0.2</v>
+        <v>3.298697014679202</v>
       </c>
       <c r="P65" t="n">
-        <v>3.298697014679202</v>
-      </c>
-      <c r="Q65" t="n">
         <v>1.794177799769092</v>
       </c>
     </row>
@@ -3950,18 +3753,15 @@
         <v>52.60000000000001</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>33.34400000000004</v>
       </c>
       <c r="N66" t="n">
-        <v>33.34400000000004</v>
+        <v>0.2</v>
       </c>
       <c r="O66" t="n">
-        <v>0.2</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P66" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q66" t="n">
         <v>1.695369631167172</v>
       </c>
     </row>
@@ -4003,18 +3803,15 @@
         <v>52.60000000000001</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>33.34400000000004</v>
       </c>
       <c r="N67" t="n">
-        <v>33.34400000000004</v>
+        <v>0.2</v>
       </c>
       <c r="O67" t="n">
-        <v>0.2</v>
+        <v>3.094538140182578</v>
       </c>
       <c r="P67" t="n">
-        <v>3.094538140182578</v>
-      </c>
-      <c r="Q67" t="n">
         <v>1.602676775491258</v>
       </c>
     </row>
@@ -4056,18 +3853,15 @@
         <v>52.60000000000001</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>51.81200000000006</v>
       </c>
       <c r="N68" t="n">
-        <v>51.81200000000006</v>
+        <v>0.2</v>
       </c>
       <c r="O68" t="n">
-        <v>0.2</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P68" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q68" t="n">
         <v>1.036452328159645</v>
       </c>
     </row>
@@ -4109,18 +3903,15 @@
         <v>52.60000000000001</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>51.81200000000006</v>
       </c>
       <c r="N69" t="n">
-        <v>51.81200000000006</v>
+        <v>0.2</v>
       </c>
       <c r="O69" t="n">
-        <v>0.2</v>
+        <v>3.298697014679202</v>
       </c>
       <c r="P69" t="n">
-        <v>3.298697014679202</v>
-      </c>
-      <c r="Q69" t="n">
         <v>0.9837902028698664</v>
       </c>
     </row>
@@ -4162,18 +3953,15 @@
         <v>52.60000000000001</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>51.81200000000006</v>
       </c>
       <c r="N70" t="n">
-        <v>51.81200000000006</v>
+        <v>0.2</v>
       </c>
       <c r="O70" t="n">
-        <v>0.2</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P70" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q70" t="n">
         <v>0.9344914577678429</v>
       </c>
     </row>
@@ -4215,18 +4003,15 @@
         <v>52.60000000000001</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>51.81200000000006</v>
       </c>
       <c r="N71" t="n">
-        <v>51.81200000000006</v>
+        <v>0.2</v>
       </c>
       <c r="O71" t="n">
-        <v>0.2</v>
+        <v>3.094538140182578</v>
       </c>
       <c r="P71" t="n">
-        <v>3.094538140182578</v>
-      </c>
-      <c r="Q71" t="n">
         <v>0.8882438496054463</v>
       </c>
     </row>
@@ -4268,18 +4053,15 @@
         <v>12.89</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>2.205000000000005</v>
       </c>
       <c r="N72" t="n">
-        <v>2.205000000000005</v>
+        <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>0</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P72" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q72" t="n">
         <v>-0.1319404059355279</v>
       </c>
     </row>
@@ -4321,18 +4103,15 @@
         <v>12.89</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>2.205000000000005</v>
       </c>
       <c r="N73" t="n">
-        <v>2.205000000000005</v>
+        <v>0</v>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
+        <v>3.298697014679202</v>
       </c>
       <c r="P73" t="n">
-        <v>3.298697014679202</v>
-      </c>
-      <c r="Q73" t="n">
         <v>-0.1319489691571829</v>
       </c>
     </row>
@@ -4374,18 +4153,15 @@
         <v>12.89</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>2.205000000000005</v>
       </c>
       <c r="N74" t="n">
-        <v>2.205000000000005</v>
+        <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P74" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q74" t="n">
         <v>-0.1319569854702219</v>
       </c>
     </row>
@@ -4427,18 +4203,15 @@
         <v>12.89</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>2.205000000000005</v>
       </c>
       <c r="N75" t="n">
-        <v>2.205000000000005</v>
+        <v>0</v>
       </c>
       <c r="O75" t="n">
-        <v>0</v>
+        <v>3.094538140182578</v>
       </c>
       <c r="P75" t="n">
-        <v>3.094538140182578</v>
-      </c>
-      <c r="Q75" t="n">
         <v>-0.1319645056475321</v>
       </c>
     </row>
@@ -4480,18 +4253,15 @@
         <v>26.3</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>9.703000000000021</v>
       </c>
       <c r="N76" t="n">
-        <v>9.703000000000021</v>
+        <v>0.4</v>
       </c>
       <c r="O76" t="n">
-        <v>0.4</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P76" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q76" t="n">
         <v>0.05630180794814942</v>
       </c>
     </row>
@@ -4533,18 +4303,15 @@
         <v>26.3</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>9.703000000000021</v>
       </c>
       <c r="N77" t="n">
-        <v>9.703000000000021</v>
+        <v>0.4</v>
       </c>
       <c r="O77" t="n">
-        <v>0.4</v>
+        <v>3.298697014679202</v>
       </c>
       <c r="P77" t="n">
-        <v>3.298697014679202</v>
-      </c>
-      <c r="Q77" t="n">
         <v>0.05584652812139206</v>
       </c>
     </row>
@@ -4586,18 +4353,15 @@
         <v>26.3</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>9.703000000000021</v>
       </c>
       <c r="N78" t="n">
-        <v>9.703000000000021</v>
+        <v>0.4</v>
       </c>
       <c r="O78" t="n">
-        <v>0.4</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P78" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q78" t="n">
         <v>0.05542032572249721</v>
       </c>
     </row>
@@ -4639,18 +4403,15 @@
         <v>26.3</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>9.703000000000021</v>
       </c>
       <c r="N79" t="n">
-        <v>9.703000000000021</v>
+        <v>0.4</v>
       </c>
       <c r="O79" t="n">
-        <v>0.4</v>
+        <v>3.094538140182578</v>
       </c>
       <c r="P79" t="n">
-        <v>3.094538140182578</v>
-      </c>
-      <c r="Q79" t="n">
         <v>0.05502050131517872</v>
       </c>
     </row>
@@ -4692,18 +4453,15 @@
         <v>5.48</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>22.88559999999999</v>
       </c>
       <c r="N80" t="n">
-        <v>22.88559999999999</v>
+        <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>0</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P80" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q80" t="n">
         <v>-0.0513</v>
       </c>
     </row>
@@ -4745,18 +4503,15 @@
         <v>5.799999999999997</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>14.219</v>
       </c>
       <c r="N81" t="n">
-        <v>14.219</v>
+        <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>0</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P81" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q81" t="n">
         <v>0.729</v>
       </c>
     </row>
@@ -4798,18 +4553,15 @@
         <v>20.31</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>17.63699999999999</v>
       </c>
       <c r="N82" t="n">
-        <v>17.63699999999999</v>
+        <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>0</v>
+        <v>2.420428415829602</v>
       </c>
       <c r="P82" t="n">
-        <v>2.420428415829602</v>
-      </c>
-      <c r="Q82" t="n">
         <v>0.2749146798983421</v>
       </c>
     </row>
@@ -4851,18 +4603,15 @@
         <v>26.3</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>25.33500000000005</v>
       </c>
       <c r="N83" t="n">
-        <v>25.33500000000005</v>
+        <v>0.4</v>
       </c>
       <c r="O83" t="n">
-        <v>0.4</v>
+        <v>2.015519500151164</v>
       </c>
       <c r="P83" t="n">
-        <v>2.015519500151164</v>
-      </c>
-      <c r="Q83" t="n">
         <v>0.1569148342235211</v>
       </c>
     </row>
@@ -4904,18 +4653,15 @@
         <v>26.3</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>25.33500000000005</v>
       </c>
       <c r="N84" t="n">
-        <v>25.33500000000005</v>
+        <v>0.4</v>
       </c>
       <c r="O84" t="n">
-        <v>0.4</v>
+        <v>2.008435428800964</v>
       </c>
       <c r="P84" t="n">
-        <v>2.008435428800964</v>
-      </c>
-      <c r="Q84" t="n">
         <v>0.1565155051215103</v>
       </c>
     </row>
@@ -4957,18 +4703,15 @@
         <v>26.3</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>25.33500000000005</v>
       </c>
       <c r="N85" t="n">
-        <v>25.33500000000005</v>
+        <v>0.4</v>
       </c>
       <c r="O85" t="n">
-        <v>0.4</v>
+        <v>1.994415636218588</v>
       </c>
       <c r="P85" t="n">
-        <v>1.994415636218588</v>
-      </c>
-      <c r="Q85" t="n">
         <v>0.1557252094136418</v>
       </c>
     </row>
@@ -5010,18 +4753,15 @@
         <v>26.3</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>25.33500000000005</v>
       </c>
       <c r="N86" t="n">
-        <v>25.33500000000005</v>
+        <v>0.4</v>
       </c>
       <c r="O86" t="n">
-        <v>0.4</v>
+        <v>1.987478883036868</v>
       </c>
       <c r="P86" t="n">
-        <v>1.987478883036868</v>
-      </c>
-      <c r="Q86" t="n">
         <v>0.1553341846367882</v>
       </c>
     </row>
@@ -5063,18 +4803,15 @@
         <v>26.3</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>53.03700000000008</v>
       </c>
       <c r="N87" t="n">
-        <v>53.03700000000008</v>
+        <v>0.4</v>
       </c>
       <c r="O87" t="n">
-        <v>0.4</v>
+        <v>1.948747929455325</v>
       </c>
       <c r="P87" t="n">
-        <v>1.948747929455325</v>
-      </c>
-      <c r="Q87" t="n">
         <v>0.1579865926142454</v>
       </c>
     </row>
@@ -5116,18 +4853,15 @@
         <v>26.3</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>53.03700000000008</v>
       </c>
       <c r="N88" t="n">
-        <v>53.03700000000008</v>
+        <v>0.4</v>
       </c>
       <c r="O88" t="n">
-        <v>0.4</v>
+        <v>1.939299912731504</v>
       </c>
       <c r="P88" t="n">
-        <v>1.939299912731504</v>
-      </c>
-      <c r="Q88" t="n">
         <v>0.1576220692330069</v>
       </c>
     </row>
@@ -5169,18 +4903,15 @@
         <v>26.3</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>53.03700000000008</v>
       </c>
       <c r="N89" t="n">
-        <v>53.03700000000008</v>
+        <v>0.4</v>
       </c>
       <c r="O89" t="n">
-        <v>0.4</v>
+        <v>1.920676077979449</v>
       </c>
       <c r="P89" t="n">
-        <v>1.920676077979449</v>
-      </c>
-      <c r="Q89" t="n">
         <v>0.1569035244406031</v>
       </c>
     </row>
@@ -5222,18 +4953,15 @@
         <v>26.3</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>53.03700000000008</v>
       </c>
       <c r="N90" t="n">
-        <v>53.03700000000008</v>
+        <v>0.4</v>
       </c>
       <c r="O90" t="n">
-        <v>0.4</v>
+        <v>1.911497658415368</v>
       </c>
       <c r="P90" t="n">
-        <v>1.911497658415368</v>
-      </c>
-      <c r="Q90" t="n">
         <v>0.1565494026569818</v>
       </c>
     </row>
@@ -5275,18 +5003,15 @@
         <v>3.24</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>26.62500000000004</v>
       </c>
       <c r="N91" t="n">
-        <v>26.62500000000004</v>
+        <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>0</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P91" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q91" t="n">
         <v>0.033</v>
       </c>
     </row>
@@ -5328,18 +5053,15 @@
         <v>17.07</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>34.26700000000005</v>
       </c>
       <c r="N92" t="n">
-        <v>34.26700000000005</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="O92" t="n">
-        <v>0.3846153846153846</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P92" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q92" t="n">
         <v>0.287</v>
       </c>
     </row>
@@ -5381,18 +5103,15 @@
         <v>20.31</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>7.642000000000021</v>
       </c>
       <c r="N93" t="n">
-        <v>7.642000000000021</v>
+        <v>0</v>
       </c>
       <c r="O93" t="n">
-        <v>0</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P93" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q93" t="n">
         <v>0.096</v>
       </c>
     </row>
@@ -5434,18 +5153,15 @@
         <v>26.3</v>
       </c>
       <c r="M94" t="n">
-        <v>0</v>
+        <v>15.47399999999999</v>
       </c>
       <c r="N94" t="n">
-        <v>15.47399999999999</v>
+        <v>0.4</v>
       </c>
       <c r="O94" t="n">
-        <v>0.4</v>
+        <v>2.308669052291354</v>
       </c>
       <c r="P94" t="n">
-        <v>2.308669052291354</v>
-      </c>
-      <c r="Q94" t="n">
         <v>-0.295</v>
       </c>
     </row>
@@ -5487,18 +5203,15 @@
         <v>13.14</v>
       </c>
       <c r="M95" t="n">
-        <v>0</v>
+        <v>0.340999999999994</v>
       </c>
       <c r="N95" t="n">
-        <v>0.340999999999994</v>
+        <v>0.25</v>
       </c>
       <c r="O95" t="n">
-        <v>0.25</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P95" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q95" t="n">
         <v>-0.09949582125191882</v>
       </c>
     </row>
@@ -5540,18 +5253,15 @@
         <v>13.14</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>0.340999999999994</v>
       </c>
       <c r="N96" t="n">
-        <v>0.340999999999994</v>
+        <v>0.25</v>
       </c>
       <c r="O96" t="n">
-        <v>0.25</v>
+        <v>3.298697014679202</v>
       </c>
       <c r="P96" t="n">
-        <v>3.298697014679202</v>
-      </c>
-      <c r="Q96" t="n">
         <v>-0.09251921491011052</v>
       </c>
     </row>
@@ -5593,18 +5303,15 @@
         <v>13.14</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>0.340999999999994</v>
       </c>
       <c r="N97" t="n">
-        <v>0.340999999999994</v>
+        <v>0.25</v>
       </c>
       <c r="O97" t="n">
-        <v>0.25</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P97" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q97" t="n">
         <v>-0.08598818457608177</v>
       </c>
     </row>
@@ -5646,18 +5353,15 @@
         <v>13.14</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>0.340999999999994</v>
       </c>
       <c r="N98" t="n">
-        <v>0.340999999999994</v>
+        <v>0.25</v>
       </c>
       <c r="O98" t="n">
-        <v>0.25</v>
+        <v>3.094538140182578</v>
       </c>
       <c r="P98" t="n">
-        <v>3.094538140182578</v>
-      </c>
-      <c r="Q98" t="n">
         <v>-0.07986136469131984</v>
       </c>
     </row>
@@ -5699,18 +5403,15 @@
         <v>11.59</v>
       </c>
       <c r="M99" t="n">
-        <v>0</v>
+        <v>15.7776</v>
       </c>
       <c r="N99" t="n">
-        <v>15.7776</v>
+        <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>0</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P99" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q99" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -5752,18 +5453,15 @@
         <v>0</v>
       </c>
       <c r="M100" t="n">
-        <v>0</v>
+        <v>11.52200000000002</v>
       </c>
       <c r="N100" t="n">
-        <v>11.52200000000002</v>
+        <v>0.2</v>
       </c>
       <c r="O100" t="n">
-        <v>0.2</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="P100" t="n">
-        <v>2.564102564102564</v>
-      </c>
-      <c r="Q100" t="n">
         <v>0.03889230769230769</v>
       </c>
     </row>
@@ -5805,18 +5503,15 @@
         <v>0</v>
       </c>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>11.52200000000002</v>
       </c>
       <c r="N101" t="n">
-        <v>11.52200000000002</v>
+        <v>0.2</v>
       </c>
       <c r="O101" t="n">
-        <v>0.2</v>
+        <v>2.318840579710145</v>
       </c>
       <c r="P101" t="n">
-        <v>2.318840579710145</v>
-      </c>
-      <c r="Q101" t="n">
         <v>0.03241739130434782</v>
       </c>
     </row>
@@ -5858,18 +5553,15 @@
         <v>0</v>
       </c>
       <c r="M102" t="n">
-        <v>0</v>
+        <v>11.52200000000002</v>
       </c>
       <c r="N102" t="n">
-        <v>11.52200000000002</v>
+        <v>0.2</v>
       </c>
       <c r="O102" t="n">
-        <v>0.2</v>
+        <v>1.94647201946472</v>
       </c>
       <c r="P102" t="n">
-        <v>1.94647201946472</v>
-      </c>
-      <c r="Q102" t="n">
         <v>0.02258686131386861</v>
       </c>
     </row>
@@ -5911,18 +5603,15 @@
         <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>0</v>
+        <v>11.52200000000002</v>
       </c>
       <c r="N103" t="n">
-        <v>11.52200000000002</v>
+        <v>0.2</v>
       </c>
       <c r="O103" t="n">
-        <v>0.2</v>
+        <v>1.801801801801802</v>
       </c>
       <c r="P103" t="n">
-        <v>1.801801801801802</v>
-      </c>
-      <c r="Q103" t="n">
         <v>0.01876756756756757</v>
       </c>
     </row>
@@ -5964,18 +5653,15 @@
         <v>0</v>
       </c>
       <c r="M104" t="n">
-        <v>0</v>
+        <v>16.13900000000001</v>
       </c>
       <c r="N104" t="n">
-        <v>16.13900000000001</v>
+        <v>0</v>
       </c>
       <c r="O104" t="n">
-        <v>0</v>
+        <v>2.543558438255119</v>
       </c>
       <c r="P104" t="n">
-        <v>2.543558438255119</v>
-      </c>
-      <c r="Q104" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -6017,18 +5703,15 @@
         <v>12.53</v>
       </c>
       <c r="M105" t="n">
-        <v>0</v>
+        <v>14.19199999999999</v>
       </c>
       <c r="N105" t="n">
-        <v>14.19199999999999</v>
+        <v>1</v>
       </c>
       <c r="O105" t="n">
-        <v>1</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="P105" t="n">
-        <v>2.564102564102564</v>
-      </c>
-      <c r="Q105" t="n">
         <v>0.1746641025641026</v>
       </c>
     </row>
@@ -6070,18 +5753,15 @@
         <v>12.53</v>
       </c>
       <c r="M106" t="n">
-        <v>0</v>
+        <v>14.19199999999999</v>
       </c>
       <c r="N106" t="n">
-        <v>14.19199999999999</v>
+        <v>1</v>
       </c>
       <c r="O106" t="n">
-        <v>1</v>
+        <v>2.318840579710145</v>
       </c>
       <c r="P106" t="n">
-        <v>2.318840579710145</v>
-      </c>
-      <c r="Q106" t="n">
         <v>0.1524188405797101</v>
       </c>
     </row>
@@ -6123,18 +5803,15 @@
         <v>12.53</v>
       </c>
       <c r="M107" t="n">
-        <v>0</v>
+        <v>14.19199999999999</v>
       </c>
       <c r="N107" t="n">
-        <v>14.19199999999999</v>
+        <v>1</v>
       </c>
       <c r="O107" t="n">
-        <v>1</v>
+        <v>1.94647201946472</v>
       </c>
       <c r="P107" t="n">
-        <v>1.94647201946472</v>
-      </c>
-      <c r="Q107" t="n">
         <v>0.1186450121654501</v>
       </c>
     </row>
@@ -6176,18 +5853,15 @@
         <v>12.53</v>
       </c>
       <c r="M108" t="n">
-        <v>0</v>
+        <v>14.19199999999999</v>
       </c>
       <c r="N108" t="n">
-        <v>14.19199999999999</v>
+        <v>1</v>
       </c>
       <c r="O108" t="n">
-        <v>1</v>
+        <v>1.801801801801802</v>
       </c>
       <c r="P108" t="n">
-        <v>1.801801801801802</v>
-      </c>
-      <c r="Q108" t="n">
         <v>0.1055234234234234</v>
       </c>
     </row>
@@ -6229,18 +5903,15 @@
         <v>12.53</v>
       </c>
       <c r="M109" t="n">
-        <v>0</v>
+        <v>25.71400000000001</v>
       </c>
       <c r="N109" t="n">
-        <v>25.71400000000001</v>
+        <v>1</v>
       </c>
       <c r="O109" t="n">
-        <v>1</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="P109" t="n">
-        <v>2.564102564102564</v>
-      </c>
-      <c r="Q109" t="n">
         <v>0.0535102564102564</v>
       </c>
     </row>
@@ -6282,18 +5953,15 @@
         <v>12.53</v>
       </c>
       <c r="M110" t="n">
-        <v>0</v>
+        <v>25.71400000000001</v>
       </c>
       <c r="N110" t="n">
-        <v>25.71400000000001</v>
+        <v>1</v>
       </c>
       <c r="O110" t="n">
-        <v>1</v>
+        <v>2.318840579710145</v>
       </c>
       <c r="P110" t="n">
-        <v>2.318840579710145</v>
-      </c>
-      <c r="Q110" t="n">
         <v>0.04620144927536232</v>
       </c>
     </row>
@@ -6335,18 +6003,15 @@
         <v>12.53</v>
       </c>
       <c r="M111" t="n">
-        <v>0</v>
+        <v>25.71400000000001</v>
       </c>
       <c r="N111" t="n">
-        <v>25.71400000000001</v>
+        <v>1</v>
       </c>
       <c r="O111" t="n">
-        <v>1</v>
+        <v>1.94647201946472</v>
       </c>
       <c r="P111" t="n">
-        <v>1.94647201946472</v>
-      </c>
-      <c r="Q111" t="n">
         <v>0.03510486618004867</v>
       </c>
     </row>
@@ -6388,18 +6053,15 @@
         <v>12.53</v>
       </c>
       <c r="M112" t="n">
-        <v>0</v>
+        <v>25.71400000000001</v>
       </c>
       <c r="N112" t="n">
-        <v>25.71400000000001</v>
+        <v>1</v>
       </c>
       <c r="O112" t="n">
-        <v>1</v>
+        <v>1.801801801801802</v>
       </c>
       <c r="P112" t="n">
-        <v>1.801801801801802</v>
-      </c>
-      <c r="Q112" t="n">
         <v>0.03079369369369369</v>
       </c>
     </row>
@@ -6441,18 +6103,15 @@
         <v>57.53</v>
       </c>
       <c r="M113" t="n">
-        <v>0</v>
+        <v>17.21640000000001</v>
       </c>
       <c r="N113" t="n">
-        <v>17.21640000000001</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O113" t="n">
-        <v>0.6666666666666666</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P113" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q113" t="n">
         <v>0.3173984308374553</v>
       </c>
     </row>
@@ -6494,18 +6153,15 @@
         <v>57.53</v>
       </c>
       <c r="M114" t="n">
-        <v>0</v>
+        <v>17.21640000000001</v>
       </c>
       <c r="N114" t="n">
-        <v>17.21640000000001</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O114" t="n">
-        <v>0.6666666666666666</v>
+        <v>3.298697014679202</v>
       </c>
       <c r="P114" t="n">
-        <v>3.298697014679202</v>
-      </c>
-      <c r="Q114" t="n">
         <v>0.2999681675738084</v>
       </c>
     </row>
@@ -6547,18 +6203,15 @@
         <v>57.53</v>
       </c>
       <c r="M115" t="n">
-        <v>0</v>
+        <v>17.21640000000001</v>
       </c>
       <c r="N115" t="n">
-        <v>17.21640000000001</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O115" t="n">
-        <v>0.6666666666666666</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P115" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q115" t="n">
         <v>0.2836511256586302</v>
       </c>
     </row>
@@ -6600,18 +6253,15 @@
         <v>57.53</v>
       </c>
       <c r="M116" t="n">
-        <v>0</v>
+        <v>17.21640000000001</v>
       </c>
       <c r="N116" t="n">
-        <v>17.21640000000001</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O116" t="n">
-        <v>0.6666666666666666</v>
+        <v>3.094538140182578</v>
       </c>
       <c r="P116" t="n">
-        <v>3.094538140182578</v>
-      </c>
-      <c r="Q116" t="n">
         <v>0.2683439579142813</v>
       </c>
     </row>
@@ -6653,18 +6303,15 @@
         <v>0</v>
       </c>
       <c r="M117" t="n">
-        <v>0</v>
+        <v>11.52200000000002</v>
       </c>
       <c r="N117" t="n">
-        <v>11.52200000000002</v>
+        <v>0.2</v>
       </c>
       <c r="O117" t="n">
-        <v>0.2</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P117" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q117" t="n">
         <v>0.1306032747740065</v>
       </c>
     </row>
@@ -6706,18 +6353,15 @@
         <v>0</v>
       </c>
       <c r="M118" t="n">
-        <v>0</v>
+        <v>11.52200000000002</v>
       </c>
       <c r="N118" t="n">
-        <v>11.52200000000002</v>
+        <v>0.2</v>
       </c>
       <c r="O118" t="n">
-        <v>0.2</v>
+        <v>3.298697014679202</v>
       </c>
       <c r="P118" t="n">
-        <v>3.298697014679202</v>
-      </c>
-      <c r="Q118" t="n">
         <v>0.1239529935675408</v>
       </c>
     </row>
@@ -6759,18 +6403,15 @@
         <v>0</v>
       </c>
       <c r="M119" t="n">
-        <v>0</v>
+        <v>11.52200000000002</v>
       </c>
       <c r="N119" t="n">
-        <v>11.52200000000002</v>
+        <v>0.2</v>
       </c>
       <c r="O119" t="n">
-        <v>0.2</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P119" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q119" t="n">
         <v>0.1177274469104263</v>
       </c>
     </row>
@@ -6812,18 +6453,15 @@
         <v>0</v>
       </c>
       <c r="M120" t="n">
-        <v>0</v>
+        <v>11.52200000000002</v>
       </c>
       <c r="N120" t="n">
-        <v>11.52200000000002</v>
+        <v>0.2</v>
       </c>
       <c r="O120" t="n">
-        <v>0.2</v>
+        <v>3.094538140182578</v>
       </c>
       <c r="P120" t="n">
-        <v>3.094538140182578</v>
-      </c>
-      <c r="Q120" t="n">
         <v>0.1118872040847904</v>
       </c>
     </row>
@@ -6865,18 +6503,15 @@
         <v>26.3</v>
       </c>
       <c r="M121" t="n">
-        <v>0</v>
+        <v>9.703000000000021</v>
       </c>
       <c r="N121" t="n">
-        <v>9.703000000000021</v>
+        <v>0.4</v>
       </c>
       <c r="O121" t="n">
-        <v>0.4</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P121" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q121" t="n">
         <v>0.03393928023196316</v>
       </c>
     </row>
@@ -6918,18 +6553,15 @@
         <v>26.3</v>
       </c>
       <c r="M122" t="n">
-        <v>0</v>
+        <v>9.703000000000021</v>
       </c>
       <c r="N122" t="n">
-        <v>9.703000000000021</v>
+        <v>0.4</v>
       </c>
       <c r="O122" t="n">
-        <v>0.4</v>
+        <v>3.298697014679202</v>
       </c>
       <c r="P122" t="n">
-        <v>3.298697014679202</v>
-      </c>
-      <c r="Q122" t="n">
         <v>0.0335454395513772</v>
       </c>
     </row>
@@ -6971,18 +6603,15 @@
         <v>26.3</v>
       </c>
       <c r="M123" t="n">
-        <v>0</v>
+        <v>9.703000000000021</v>
       </c>
       <c r="N123" t="n">
-        <v>9.703000000000021</v>
+        <v>0.4</v>
       </c>
       <c r="O123" t="n">
-        <v>0.4</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P123" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q123" t="n">
         <v>0.03317675235510139</v>
       </c>
     </row>
@@ -7024,18 +6653,15 @@
         <v>26.3</v>
       </c>
       <c r="M124" t="n">
-        <v>0</v>
+        <v>9.703000000000021</v>
       </c>
       <c r="N124" t="n">
-        <v>9.703000000000021</v>
+        <v>0.4</v>
       </c>
       <c r="O124" t="n">
-        <v>0.4</v>
+        <v>3.094538140182578</v>
       </c>
       <c r="P124" t="n">
-        <v>3.094538140182578</v>
-      </c>
-      <c r="Q124" t="n">
         <v>0.03283088349063902</v>
       </c>
     </row>
@@ -7077,18 +6703,15 @@
         <v>0</v>
       </c>
       <c r="M125" t="n">
-        <v>0</v>
+        <v>9.406000000000002</v>
       </c>
       <c r="N125" t="n">
-        <v>9.406000000000002</v>
+        <v>0</v>
       </c>
       <c r="O125" t="n">
-        <v>0</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P125" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q125" t="n">
         <v>0.394</v>
       </c>
     </row>
@@ -7130,18 +6753,15 @@
         <v>12.89</v>
       </c>
       <c r="M126" t="n">
-        <v>0</v>
+        <v>2.205000000000005</v>
       </c>
       <c r="N126" t="n">
-        <v>2.205000000000005</v>
+        <v>0</v>
       </c>
       <c r="O126" t="n">
-        <v>0</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P126" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q126" t="n">
         <v>0.1095366877025414</v>
       </c>
     </row>
@@ -7183,18 +6803,15 @@
         <v>12.89</v>
       </c>
       <c r="M127" t="n">
-        <v>0</v>
+        <v>2.205000000000005</v>
       </c>
       <c r="N127" t="n">
-        <v>2.205000000000005</v>
+        <v>0</v>
       </c>
       <c r="O127" t="n">
-        <v>0</v>
+        <v>3.298697014679202</v>
       </c>
       <c r="P127" t="n">
-        <v>3.298697014679202</v>
-      </c>
-      <c r="Q127" t="n">
         <v>0.1061609104403761</v>
       </c>
     </row>
@@ -7236,18 +6853,15 @@
         <v>12.89</v>
       </c>
       <c r="M128" t="n">
-        <v>0</v>
+        <v>2.205000000000005</v>
       </c>
       <c r="N128" t="n">
-        <v>2.205000000000005</v>
+        <v>0</v>
       </c>
       <c r="O128" t="n">
-        <v>0</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P128" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q128" t="n">
         <v>0.1030007344722976</v>
       </c>
     </row>
@@ -7289,18 +6903,15 @@
         <v>12.89</v>
       </c>
       <c r="M129" t="n">
-        <v>0</v>
+        <v>2.205000000000005</v>
       </c>
       <c r="N129" t="n">
-        <v>2.205000000000005</v>
+        <v>0</v>
       </c>
       <c r="O129" t="n">
-        <v>0</v>
+        <v>3.094538140182578</v>
       </c>
       <c r="P129" t="n">
-        <v>3.094538140182578</v>
-      </c>
-      <c r="Q129" t="n">
         <v>0.1000361442054773</v>
       </c>
     </row>
@@ -7342,18 +6953,15 @@
         <v>26.3</v>
       </c>
       <c r="M130" t="n">
-        <v>0</v>
+        <v>5.48299999999999</v>
       </c>
       <c r="N130" t="n">
-        <v>5.48299999999999</v>
+        <v>1</v>
       </c>
       <c r="O130" t="n">
-        <v>1</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P130" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q130" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -7395,18 +7003,15 @@
         <v>0</v>
       </c>
       <c r="M131" t="n">
-        <v>0</v>
+        <v>15.18600000000001</v>
       </c>
       <c r="N131" t="n">
-        <v>15.18600000000001</v>
+        <v>1</v>
       </c>
       <c r="O131" t="n">
-        <v>1</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P131" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q131" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -7448,18 +7053,15 @@
         <v>9.23</v>
       </c>
       <c r="M132" t="n">
-        <v>0</v>
+        <v>10.47499999999999</v>
       </c>
       <c r="N132" t="n">
-        <v>10.47499999999999</v>
+        <v>0.4</v>
       </c>
       <c r="O132" t="n">
-        <v>0.4</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P132" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q132" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -7501,18 +7103,15 @@
         <v>17.07</v>
       </c>
       <c r="M133" t="n">
-        <v>0</v>
+        <v>20.17800000000001</v>
       </c>
       <c r="N133" t="n">
-        <v>20.17800000000001</v>
+        <v>0</v>
       </c>
       <c r="O133" t="n">
-        <v>0</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P133" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q133" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -7554,18 +7153,15 @@
         <v>26.3</v>
       </c>
       <c r="M134" t="n">
-        <v>0</v>
+        <v>4.349000000000004</v>
       </c>
       <c r="N134" t="n">
-        <v>4.349000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="O134" t="n">
-        <v>0.4</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P134" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q134" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -7607,18 +7203,15 @@
         <v>0</v>
       </c>
       <c r="M135" t="n">
-        <v>0</v>
+        <v>5.354000000000017</v>
       </c>
       <c r="N135" t="n">
-        <v>5.354000000000017</v>
+        <v>0</v>
       </c>
       <c r="O135" t="n">
-        <v>0</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P135" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q135" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -7660,18 +7253,15 @@
         <v>26.3</v>
       </c>
       <c r="M136" t="n">
-        <v>0</v>
+        <v>6.640999999999988</v>
       </c>
       <c r="N136" t="n">
-        <v>6.640999999999988</v>
+        <v>0.4</v>
       </c>
       <c r="O136" t="n">
-        <v>0.4</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P136" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q136" t="n">
         <v>1.2</v>
       </c>
     </row>
@@ -7713,18 +7303,15 @@
         <v>0</v>
       </c>
       <c r="M137" t="n">
-        <v>0</v>
+        <v>16.34400000000001</v>
       </c>
       <c r="N137" t="n">
-        <v>16.34400000000001</v>
+        <v>0</v>
       </c>
       <c r="O137" t="n">
-        <v>0</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P137" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q137" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -7766,18 +7353,15 @@
         <v>11.59</v>
       </c>
       <c r="M138" t="n">
-        <v>0</v>
+        <v>15.7776</v>
       </c>
       <c r="N138" t="n">
-        <v>15.7776</v>
+        <v>0</v>
       </c>
       <c r="O138" t="n">
-        <v>0</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P138" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q138" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -7819,18 +7403,15 @@
         <v>26.3</v>
       </c>
       <c r="M139" t="n">
-        <v>0</v>
+        <v>0.4690000000000154</v>
       </c>
       <c r="N139" t="n">
-        <v>0.4690000000000154</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="O139" t="n">
-        <v>0.5714285714285714</v>
+        <v>2.363228169679783</v>
       </c>
       <c r="P139" t="n">
-        <v>2.363228169679783</v>
-      </c>
-      <c r="Q139" t="n">
         <v>0.034</v>
       </c>
     </row>
@@ -7872,18 +7453,15 @@
         <v>26.3</v>
       </c>
       <c r="M140" t="n">
-        <v>0</v>
+        <v>15.47399999999999</v>
       </c>
       <c r="N140" t="n">
-        <v>15.47399999999999</v>
+        <v>0</v>
       </c>
       <c r="O140" t="n">
-        <v>0</v>
+        <v>2.114164904862579</v>
       </c>
       <c r="P140" t="n">
-        <v>2.114164904862579</v>
-      </c>
-      <c r="Q140" t="n">
         <v>-0.07000000000000001</v>
       </c>
     </row>
@@ -7925,18 +7503,15 @@
         <v>26.3</v>
       </c>
       <c r="M141" t="n">
-        <v>0</v>
+        <v>1.818999999999999</v>
       </c>
       <c r="N141" t="n">
-        <v>1.818999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="O141" t="n">
-        <v>0.4</v>
+        <v>2.420428415829602</v>
       </c>
       <c r="P141" t="n">
-        <v>2.420428415829602</v>
-      </c>
-      <c r="Q141" t="n">
         <v>0.077</v>
       </c>
     </row>
@@ -7978,18 +7553,15 @@
         <v>26.3</v>
       </c>
       <c r="M142" t="n">
-        <v>0</v>
+        <v>0.4690000000000154</v>
       </c>
       <c r="N142" t="n">
-        <v>0.4690000000000154</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="O142" t="n">
-        <v>0.5714285714285714</v>
+        <v>1.987478883036868</v>
       </c>
       <c r="P142" t="n">
-        <v>1.987478883036868</v>
-      </c>
-      <c r="Q142" t="n">
         <v>0.08699999999999999</v>
       </c>
     </row>
@@ -8031,18 +7603,15 @@
         <v>34.14</v>
       </c>
       <c r="M143" t="n">
-        <v>0</v>
+        <v>14.22</v>
       </c>
       <c r="N143" t="n">
-        <v>14.22</v>
+        <v>0</v>
       </c>
       <c r="O143" t="n">
-        <v>0</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P143" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q143" t="n">
         <v>3.4</v>
       </c>
     </row>
@@ -8084,18 +7653,15 @@
         <v>20.23</v>
       </c>
       <c r="M144" t="n">
-        <v>1</v>
+        <v>1.477799999999998</v>
       </c>
       <c r="N144" t="n">
-        <v>1.477799999999998</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O144" t="n">
-        <v>0.6666666666666666</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P144" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q144" t="n">
         <v>1.057</v>
       </c>
     </row>
@@ -8137,18 +7703,15 @@
         <v>5.799999999999997</v>
       </c>
       <c r="M145" t="n">
-        <v>0</v>
+        <v>14.219</v>
       </c>
       <c r="N145" t="n">
-        <v>14.219</v>
+        <v>0</v>
       </c>
       <c r="O145" t="n">
-        <v>0</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P145" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q145" t="n">
         <v>4.333</v>
       </c>
     </row>
@@ -8190,18 +7753,15 @@
         <v>9.23</v>
       </c>
       <c r="M146" t="n">
-        <v>0</v>
+        <v>19.70899999999999</v>
       </c>
       <c r="N146" t="n">
-        <v>19.70899999999999</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O146" t="n">
-        <v>0.6666666666666666</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P146" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q146" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -8243,18 +7803,15 @@
         <v>9.23</v>
       </c>
       <c r="M147" t="n">
-        <v>0</v>
+        <v>15.47299999999999</v>
       </c>
       <c r="N147" t="n">
-        <v>15.47299999999999</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O147" t="n">
-        <v>0.6666666666666666</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P147" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q147" t="n">
         <v>0.542</v>
       </c>
     </row>
@@ -8296,18 +7853,15 @@
         <v>12.53</v>
       </c>
       <c r="M148" t="n">
-        <v>0</v>
+        <v>25.71400000000001</v>
       </c>
       <c r="N148" t="n">
-        <v>25.71400000000001</v>
+        <v>1</v>
       </c>
       <c r="O148" t="n">
-        <v>1</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P148" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q148" t="n">
         <v>-0.011</v>
       </c>
     </row>
@@ -8349,18 +7903,15 @@
         <v>37.3</v>
       </c>
       <c r="M149" t="n">
-        <v>0</v>
+        <v>18.70020000000001</v>
       </c>
       <c r="N149" t="n">
-        <v>18.70020000000001</v>
+        <v>0</v>
       </c>
       <c r="O149" t="n">
-        <v>0</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P149" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q149" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -8402,18 +7953,15 @@
         <v>0</v>
       </c>
       <c r="M150" t="n">
-        <v>0</v>
+        <v>11.52200000000002</v>
       </c>
       <c r="N150" t="n">
-        <v>11.52200000000002</v>
+        <v>0</v>
       </c>
       <c r="O150" t="n">
-        <v>0</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P150" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q150" t="n">
         <v>0.1142676786628006</v>
       </c>
     </row>
@@ -8455,18 +8003,15 @@
         <v>0</v>
       </c>
       <c r="M151" t="n">
-        <v>0</v>
+        <v>11.52200000000002</v>
       </c>
       <c r="N151" t="n">
-        <v>11.52200000000002</v>
+        <v>0</v>
       </c>
       <c r="O151" t="n">
-        <v>0</v>
+        <v>3.298697014679202</v>
       </c>
       <c r="P151" t="n">
-        <v>3.298697014679202</v>
-      </c>
-      <c r="Q151" t="n">
         <v>0.108776414316345</v>
       </c>
     </row>
@@ -8508,18 +8053,15 @@
         <v>0</v>
       </c>
       <c r="M152" t="n">
-        <v>0</v>
+        <v>11.52200000000002</v>
       </c>
       <c r="N152" t="n">
-        <v>11.52200000000002</v>
+        <v>0</v>
       </c>
       <c r="O152" t="n">
-        <v>0</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P152" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q152" t="n">
         <v>0.1036358614082708</v>
       </c>
     </row>
@@ -8561,18 +8103,15 @@
         <v>0</v>
       </c>
       <c r="M153" t="n">
-        <v>0</v>
+        <v>11.52200000000002</v>
       </c>
       <c r="N153" t="n">
-        <v>11.52200000000002</v>
+        <v>0</v>
       </c>
       <c r="O153" t="n">
-        <v>0</v>
+        <v>3.094538140182578</v>
       </c>
       <c r="P153" t="n">
-        <v>3.094538140182578</v>
-      </c>
-      <c r="Q153" t="n">
         <v>0.09881346124090981</v>
       </c>
     </row>
@@ -8614,18 +8153,15 @@
         <v>26.3</v>
       </c>
       <c r="M154" t="n">
-        <v>0</v>
+        <v>9.703000000000021</v>
       </c>
       <c r="N154" t="n">
-        <v>9.703000000000021</v>
+        <v>0.4</v>
       </c>
       <c r="O154" t="n">
-        <v>0.4</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P154" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q154" t="n">
         <v>0.03191591335493775</v>
       </c>
     </row>
@@ -8667,18 +8203,15 @@
         <v>26.3</v>
       </c>
       <c r="M155" t="n">
-        <v>0</v>
+        <v>9.703000000000021</v>
       </c>
       <c r="N155" t="n">
-        <v>9.703000000000021</v>
+        <v>0.4</v>
       </c>
       <c r="O155" t="n">
-        <v>0.4</v>
+        <v>3.298697014679202</v>
       </c>
       <c r="P155" t="n">
-        <v>3.298697014679202</v>
-      </c>
-      <c r="Q155" t="n">
         <v>0.03155583044697345</v>
       </c>
     </row>
@@ -8720,18 +8253,15 @@
         <v>26.3</v>
       </c>
       <c r="M156" t="n">
-        <v>0</v>
+        <v>9.703000000000021</v>
       </c>
       <c r="N156" t="n">
-        <v>9.703000000000021</v>
+        <v>0.4</v>
       </c>
       <c r="O156" t="n">
-        <v>0.4</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P156" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q156" t="n">
         <v>0.03121874501037842</v>
       </c>
     </row>
@@ -8773,18 +8303,15 @@
         <v>26.3</v>
       </c>
       <c r="M157" t="n">
-        <v>0</v>
+        <v>9.703000000000021</v>
       </c>
       <c r="N157" t="n">
-        <v>9.703000000000021</v>
+        <v>0.4</v>
       </c>
       <c r="O157" t="n">
-        <v>0.4</v>
+        <v>3.094538140182578</v>
       </c>
       <c r="P157" t="n">
-        <v>3.094538140182578</v>
-      </c>
-      <c r="Q157" t="n">
         <v>0.03090252204858425</v>
       </c>
     </row>
@@ -8826,18 +8353,15 @@
         <v>0</v>
       </c>
       <c r="M158" t="n">
-        <v>0</v>
+        <v>11.52200000000002</v>
       </c>
       <c r="N158" t="n">
-        <v>11.52200000000002</v>
+        <v>0.2</v>
       </c>
       <c r="O158" t="n">
-        <v>0.2</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="P158" t="n">
-        <v>5.555555555555555</v>
-      </c>
-      <c r="Q158" t="n">
         <v>0.1733333333333333</v>
       </c>
     </row>
@@ -8879,18 +8403,15 @@
         <v>57.53</v>
       </c>
       <c r="M159" t="n">
-        <v>0</v>
+        <v>17.21640000000001</v>
       </c>
       <c r="N159" t="n">
-        <v>17.21640000000001</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O159" t="n">
-        <v>0.6666666666666666</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P159" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q159" t="n">
         <v>0.2226409687873103</v>
       </c>
     </row>
@@ -8932,18 +8453,15 @@
         <v>57.53</v>
       </c>
       <c r="M160" t="n">
-        <v>0</v>
+        <v>17.21640000000001</v>
       </c>
       <c r="N160" t="n">
-        <v>17.21640000000001</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O160" t="n">
-        <v>0.6666666666666666</v>
+        <v>3.298697014679202</v>
       </c>
       <c r="P160" t="n">
-        <v>3.298697014679202</v>
-      </c>
-      <c r="Q160" t="n">
         <v>0.2116021771400297</v>
       </c>
     </row>
@@ -8985,18 +8503,15 @@
         <v>57.53</v>
       </c>
       <c r="M161" t="n">
-        <v>0</v>
+        <v>17.21640000000001</v>
       </c>
       <c r="N161" t="n">
-        <v>17.21640000000001</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O161" t="n">
-        <v>0.6666666666666666</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P161" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q161" t="n">
         <v>0.2012684017244132</v>
       </c>
     </row>
@@ -9038,18 +8553,15 @@
         <v>57.53</v>
       </c>
       <c r="M162" t="n">
-        <v>0</v>
+        <v>17.21640000000001</v>
       </c>
       <c r="N162" t="n">
-        <v>17.21640000000001</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O162" t="n">
-        <v>0.6666666666666666</v>
+        <v>3.094538140182578</v>
       </c>
       <c r="P162" t="n">
-        <v>3.094538140182578</v>
-      </c>
-      <c r="Q162" t="n">
         <v>0.1915741915519109</v>
       </c>
     </row>
@@ -9091,18 +8603,15 @@
         <v>12.89</v>
       </c>
       <c r="M163" t="n">
-        <v>0</v>
+        <v>2.205000000000005</v>
       </c>
       <c r="N163" t="n">
-        <v>2.205000000000005</v>
+        <v>0</v>
       </c>
       <c r="O163" t="n">
-        <v>0</v>
+        <v>2.308669052291354</v>
       </c>
       <c r="P163" t="n">
-        <v>2.308669052291354</v>
-      </c>
-      <c r="Q163" t="n">
         <v>-0.04999999999999999</v>
       </c>
     </row>
@@ -9144,18 +8653,15 @@
         <v>9.23</v>
       </c>
       <c r="M164" t="n">
-        <v>0</v>
+        <v>19.78100000000003</v>
       </c>
       <c r="N164" t="n">
-        <v>19.78100000000003</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O164" t="n">
-        <v>0.3333333333333333</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P164" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q164" t="n">
         <v>-0.003000000000000003</v>
       </c>
     </row>
@@ -9197,18 +8703,15 @@
         <v>3.66</v>
       </c>
       <c r="M165" t="n">
-        <v>0</v>
+        <v>21.98600000000004</v>
       </c>
       <c r="N165" t="n">
-        <v>21.98600000000004</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O165" t="n">
-        <v>0.3333333333333333</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P165" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q165" t="n">
         <v>-0.03999999999999998</v>
       </c>
     </row>
@@ -9250,18 +8753,15 @@
         <v>26.3</v>
       </c>
       <c r="M166" t="n">
-        <v>0</v>
+        <v>9.703000000000021</v>
       </c>
       <c r="N166" t="n">
-        <v>9.703000000000021</v>
+        <v>0.4</v>
       </c>
       <c r="O166" t="n">
-        <v>0.4</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P166" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q166" t="n">
         <v>0.04130376940133038</v>
       </c>
     </row>
@@ -9303,18 +8803,15 @@
         <v>26.3</v>
       </c>
       <c r="M167" t="n">
-        <v>0</v>
+        <v>9.703000000000021</v>
       </c>
       <c r="N167" t="n">
-        <v>9.703000000000021</v>
+        <v>0.4</v>
       </c>
       <c r="O167" t="n">
-        <v>0.4</v>
+        <v>3.298697014679202</v>
       </c>
       <c r="P167" t="n">
-        <v>3.298697014679202</v>
-      </c>
-      <c r="Q167" t="n">
         <v>0.04086491835724889</v>
       </c>
     </row>
@@ -9356,18 +8853,15 @@
         <v>26.3</v>
       </c>
       <c r="M168" t="n">
-        <v>0</v>
+        <v>9.703000000000021</v>
       </c>
       <c r="N168" t="n">
-        <v>9.703000000000021</v>
+        <v>0.4</v>
       </c>
       <c r="O168" t="n">
-        <v>0.4</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P168" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q168" t="n">
         <v>0.04045409548139869</v>
       </c>
     </row>
@@ -9409,18 +8903,15 @@
         <v>26.3</v>
       </c>
       <c r="M169" t="n">
-        <v>0</v>
+        <v>9.703000000000021</v>
       </c>
       <c r="N169" t="n">
-        <v>9.703000000000021</v>
+        <v>0.4</v>
       </c>
       <c r="O169" t="n">
-        <v>0.4</v>
+        <v>3.094538140182578</v>
       </c>
       <c r="P169" t="n">
-        <v>3.094538140182578</v>
-      </c>
-      <c r="Q169" t="n">
         <v>0.04006869874671205</v>
       </c>
     </row>
@@ -9462,18 +8953,15 @@
         <v>12.89</v>
       </c>
       <c r="M170" t="n">
-        <v>0</v>
+        <v>20.90500000000004</v>
       </c>
       <c r="N170" t="n">
-        <v>20.90500000000004</v>
+        <v>0</v>
       </c>
       <c r="O170" t="n">
-        <v>0</v>
+        <v>2.468221646303838</v>
       </c>
       <c r="P170" t="n">
-        <v>2.468221646303838</v>
-      </c>
-      <c r="Q170" t="n">
         <v>0.1173922497840306</v>
       </c>
     </row>
@@ -9515,18 +9003,15 @@
         <v>12.89</v>
       </c>
       <c r="M171" t="n">
-        <v>0</v>
+        <v>20.90500000000004</v>
       </c>
       <c r="N171" t="n">
-        <v>20.90500000000004</v>
+        <v>0</v>
       </c>
       <c r="O171" t="n">
-        <v>0</v>
+        <v>2.314011338655559</v>
       </c>
       <c r="P171" t="n">
-        <v>2.314011338655559</v>
-      </c>
-      <c r="Q171" t="n">
         <v>0.1069213698947125</v>
       </c>
     </row>
@@ -9568,18 +9053,15 @@
         <v>12.89</v>
       </c>
       <c r="M172" t="n">
-        <v>0</v>
+        <v>20.90500000000004</v>
       </c>
       <c r="N172" t="n">
-        <v>20.90500000000004</v>
+        <v>0</v>
       </c>
       <c r="O172" t="n">
-        <v>0</v>
+        <v>2.056978298878947</v>
       </c>
       <c r="P172" t="n">
-        <v>2.056978298878947</v>
-      </c>
-      <c r="Q172" t="n">
         <v>0.08946882649388052</v>
       </c>
     </row>
@@ -9621,18 +9103,15 @@
         <v>12.89</v>
       </c>
       <c r="M173" t="n">
-        <v>0</v>
+        <v>20.90500000000004</v>
       </c>
       <c r="N173" t="n">
-        <v>20.90500000000004</v>
+        <v>0</v>
       </c>
       <c r="O173" t="n">
-        <v>0</v>
+        <v>1.948747929455325</v>
       </c>
       <c r="P173" t="n">
-        <v>1.948747929455325</v>
-      </c>
-      <c r="Q173" t="n">
         <v>0.08211998441001658</v>
       </c>
     </row>
@@ -9674,18 +9153,15 @@
         <v>12.89</v>
       </c>
       <c r="M174" t="n">
-        <v>0</v>
+        <v>2.205000000000005</v>
       </c>
       <c r="N174" t="n">
-        <v>2.205000000000005</v>
+        <v>0</v>
       </c>
       <c r="O174" t="n">
-        <v>0</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P174" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q174" t="n">
         <v>0.1819070441753369</v>
       </c>
     </row>
@@ -9727,18 +9203,15 @@
         <v>12.89</v>
       </c>
       <c r="M175" t="n">
-        <v>0</v>
+        <v>2.205000000000005</v>
       </c>
       <c r="N175" t="n">
-        <v>2.205000000000005</v>
+        <v>0</v>
       </c>
       <c r="O175" t="n">
-        <v>0</v>
+        <v>3.298697014679202</v>
       </c>
       <c r="P175" t="n">
-        <v>3.298697014679202</v>
-      </c>
-      <c r="Q175" t="n">
         <v>0.1748179119247897</v>
       </c>
     </row>
@@ -9780,18 +9253,15 @@
         <v>12.89</v>
       </c>
       <c r="M176" t="n">
-        <v>0</v>
+        <v>2.205000000000005</v>
       </c>
       <c r="N176" t="n">
-        <v>2.205000000000005</v>
+        <v>0</v>
       </c>
       <c r="O176" t="n">
-        <v>0</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P176" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q176" t="n">
         <v>0.168181542391825</v>
       </c>
     </row>
@@ -9833,18 +9303,15 @@
         <v>12.89</v>
       </c>
       <c r="M177" t="n">
-        <v>0</v>
+        <v>2.205000000000005</v>
       </c>
       <c r="N177" t="n">
-        <v>2.205000000000005</v>
+        <v>0</v>
       </c>
       <c r="O177" t="n">
-        <v>0</v>
+        <v>3.094538140182578</v>
       </c>
       <c r="P177" t="n">
-        <v>3.094538140182578</v>
-      </c>
-      <c r="Q177" t="n">
         <v>0.1619559028315024</v>
       </c>
     </row>
@@ -9886,18 +9353,15 @@
         <v>11.59</v>
       </c>
       <c r="M178" t="n">
-        <v>0</v>
+        <v>15.7776</v>
       </c>
       <c r="N178" t="n">
-        <v>15.7776</v>
+        <v>0</v>
       </c>
       <c r="O178" t="n">
-        <v>0</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P178" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q178" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -9939,18 +9403,15 @@
         <v>11.59</v>
       </c>
       <c r="M179" t="n">
-        <v>0</v>
+        <v>15.7776</v>
       </c>
       <c r="N179" t="n">
-        <v>15.7776</v>
+        <v>0</v>
       </c>
       <c r="O179" t="n">
-        <v>0</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P179" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q179" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -9992,18 +9453,15 @@
         <v>18.97</v>
       </c>
       <c r="M180" t="n">
-        <v>0</v>
+        <v>7.205200000000001</v>
       </c>
       <c r="N180" t="n">
-        <v>7.205200000000001</v>
+        <v>0</v>
       </c>
       <c r="O180" t="n">
-        <v>0</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P180" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q180" t="n">
         <v>-0.04000000000000004</v>
       </c>
     </row>
@@ -10045,18 +9503,15 @@
         <v>0</v>
       </c>
       <c r="M181" t="n">
-        <v>0</v>
+        <v>21.73640000000003</v>
       </c>
       <c r="N181" t="n">
-        <v>21.73640000000003</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O181" t="n">
-        <v>0.3333333333333333</v>
+        <v>3.320604349991699</v>
       </c>
       <c r="P181" t="n">
-        <v>3.320604349991699</v>
-      </c>
-      <c r="Q181" t="n">
         <v>0.197</v>
       </c>
     </row>
@@ -10098,18 +9553,15 @@
         <v>0</v>
       </c>
       <c r="M182" t="n">
-        <v>0</v>
+        <v>11.52200000000002</v>
       </c>
       <c r="N182" t="n">
-        <v>11.52200000000002</v>
+        <v>0.2</v>
       </c>
       <c r="O182" t="n">
-        <v>0.2</v>
+        <v>2.159127712404189</v>
       </c>
       <c r="P182" t="n">
-        <v>2.159127712404189</v>
-      </c>
-      <c r="Q182" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
@@ -10151,18 +9603,15 @@
         <v>8.870000000000001</v>
       </c>
       <c r="M183" t="n">
-        <v>2</v>
+        <v>25.33289999999999</v>
       </c>
       <c r="N183" t="n">
-        <v>25.33289999999999</v>
+        <v>0.5</v>
       </c>
       <c r="O183" t="n">
-        <v>0.5</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P183" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q183" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -10204,18 +9653,15 @@
         <v>2.399999999999999</v>
       </c>
       <c r="M184" t="n">
-        <v>0</v>
+        <v>29.86189999999999</v>
       </c>
       <c r="N184" t="n">
-        <v>29.86189999999999</v>
+        <v>0.5</v>
       </c>
       <c r="O184" t="n">
-        <v>0.5</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P184" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q184" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -10257,18 +9703,15 @@
         <v>0</v>
       </c>
       <c r="M185" t="n">
-        <v>0</v>
+        <v>16.13900000000001</v>
       </c>
       <c r="N185" t="n">
-        <v>16.13900000000001</v>
+        <v>0</v>
       </c>
       <c r="O185" t="n">
-        <v>0</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P185" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q185" t="n">
         <v>0.055</v>
       </c>
     </row>
@@ -10310,18 +9753,15 @@
         <v>12.89</v>
       </c>
       <c r="M186" t="n">
-        <v>0</v>
+        <v>2.205000000000005</v>
       </c>
       <c r="N186" t="n">
-        <v>2.205000000000005</v>
+        <v>0</v>
       </c>
       <c r="O186" t="n">
-        <v>0</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P186" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q186" t="n">
         <v>0.217468019785093</v>
       </c>
     </row>
@@ -10363,18 +9803,15 @@
         <v>12.89</v>
       </c>
       <c r="M187" t="n">
-        <v>0</v>
+        <v>2.205000000000005</v>
       </c>
       <c r="N187" t="n">
-        <v>2.205000000000005</v>
+        <v>0</v>
       </c>
       <c r="O187" t="n">
-        <v>0</v>
+        <v>3.298697014679202</v>
       </c>
       <c r="P187" t="n">
-        <v>3.298697014679202</v>
-      </c>
-      <c r="Q187" t="n">
         <v>0.2071606465446149</v>
       </c>
     </row>
@@ -10416,18 +9853,15 @@
         <v>12.89</v>
       </c>
       <c r="M188" t="n">
-        <v>0</v>
+        <v>2.205000000000005</v>
       </c>
       <c r="N188" t="n">
-        <v>2.205000000000005</v>
+        <v>0</v>
       </c>
       <c r="O188" t="n">
-        <v>0</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P188" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q188" t="n">
         <v>0.197511575922082</v>
       </c>
     </row>
@@ -10469,18 +9903,15 @@
         <v>12.89</v>
       </c>
       <c r="M189" t="n">
-        <v>0</v>
+        <v>2.205000000000005</v>
       </c>
       <c r="N189" t="n">
-        <v>2.205000000000005</v>
+        <v>0</v>
       </c>
       <c r="O189" t="n">
-        <v>0</v>
+        <v>3.094538140182578</v>
       </c>
       <c r="P189" t="n">
-        <v>3.094538140182578</v>
-      </c>
-      <c r="Q189" t="n">
         <v>0.1884596936407241</v>
       </c>
     </row>
@@ -10522,18 +9953,15 @@
         <v>26.3</v>
       </c>
       <c r="M190" t="n">
-        <v>0</v>
+        <v>9.703000000000021</v>
       </c>
       <c r="N190" t="n">
-        <v>9.703000000000021</v>
+        <v>0.4</v>
       </c>
       <c r="O190" t="n">
-        <v>0.4</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P190" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q190" t="n">
         <v>0.04007497867985673</v>
       </c>
     </row>
@@ -10575,18 +10003,15 @@
         <v>26.3</v>
       </c>
       <c r="M191" t="n">
-        <v>0</v>
+        <v>9.703000000000021</v>
       </c>
       <c r="N191" t="n">
-        <v>9.703000000000021</v>
+        <v>0.4</v>
       </c>
       <c r="O191" t="n">
-        <v>0.4</v>
+        <v>3.298697014679202</v>
       </c>
       <c r="P191" t="n">
-        <v>3.298697014679202</v>
-      </c>
-      <c r="Q191" t="n">
         <v>0.03971624608279729</v>
       </c>
     </row>
@@ -10628,18 +10053,15 @@
         <v>26.3</v>
       </c>
       <c r="M192" t="n">
-        <v>0</v>
+        <v>9.703000000000021</v>
       </c>
       <c r="N192" t="n">
-        <v>9.703000000000021</v>
+        <v>0.4</v>
       </c>
       <c r="O192" t="n">
-        <v>0.4</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P192" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q192" t="n">
         <v>0.03938042471658949</v>
       </c>
     </row>
@@ -10681,18 +10103,15 @@
         <v>26.3</v>
       </c>
       <c r="M193" t="n">
-        <v>0</v>
+        <v>9.703000000000021</v>
       </c>
       <c r="N193" t="n">
-        <v>9.703000000000021</v>
+        <v>0.4</v>
       </c>
       <c r="O193" t="n">
-        <v>0.4</v>
+        <v>3.094538140182578</v>
       </c>
       <c r="P193" t="n">
-        <v>3.094538140182578</v>
-      </c>
-      <c r="Q193" t="n">
         <v>0.03906538759090206</v>
       </c>
     </row>
@@ -10734,18 +10153,15 @@
         <v>26.3</v>
       </c>
       <c r="M194" t="n">
-        <v>0</v>
+        <v>9.703000000000021</v>
       </c>
       <c r="N194" t="n">
-        <v>9.703000000000021</v>
+        <v>0.4</v>
       </c>
       <c r="O194" t="n">
-        <v>0.4</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P194" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q194" t="n">
         <v>0.03191591335493775</v>
       </c>
     </row>
@@ -10787,18 +10203,15 @@
         <v>26.3</v>
       </c>
       <c r="M195" t="n">
-        <v>0</v>
+        <v>9.703000000000021</v>
       </c>
       <c r="N195" t="n">
-        <v>9.703000000000021</v>
+        <v>0.4</v>
       </c>
       <c r="O195" t="n">
-        <v>0.4</v>
+        <v>3.298697014679202</v>
       </c>
       <c r="P195" t="n">
-        <v>3.298697014679202</v>
-      </c>
-      <c r="Q195" t="n">
         <v>0.03155583044697345</v>
       </c>
     </row>
@@ -10840,18 +10253,15 @@
         <v>26.3</v>
       </c>
       <c r="M196" t="n">
-        <v>0</v>
+        <v>9.703000000000021</v>
       </c>
       <c r="N196" t="n">
-        <v>9.703000000000021</v>
+        <v>0.4</v>
       </c>
       <c r="O196" t="n">
-        <v>0.4</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P196" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q196" t="n">
         <v>0.03121874501037842</v>
       </c>
     </row>
@@ -10893,18 +10303,15 @@
         <v>26.3</v>
       </c>
       <c r="M197" t="n">
-        <v>0</v>
+        <v>9.703000000000021</v>
       </c>
       <c r="N197" t="n">
-        <v>9.703000000000021</v>
+        <v>0.4</v>
       </c>
       <c r="O197" t="n">
-        <v>0.4</v>
+        <v>3.094538140182578</v>
       </c>
       <c r="P197" t="n">
-        <v>3.094538140182578</v>
-      </c>
-      <c r="Q197" t="n">
         <v>0.03090252204858425</v>
       </c>
     </row>
@@ -10946,18 +10353,15 @@
         <v>48.3</v>
       </c>
       <c r="M198" t="n">
-        <v>2</v>
+        <v>0.7363999999999962</v>
       </c>
       <c r="N198" t="n">
-        <v>0.7363999999999962</v>
+        <v>1</v>
       </c>
       <c r="O198" t="n">
-        <v>1</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P198" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q198" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -10999,18 +10403,15 @@
         <v>0</v>
       </c>
       <c r="M199" t="n">
-        <v>0</v>
+        <v>11.52200000000002</v>
       </c>
       <c r="N199" t="n">
-        <v>11.52200000000002</v>
+        <v>0.2</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P199" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q199" t="n">
         <v>0.1578613167320485</v>
       </c>
     </row>
@@ -11052,18 +10453,15 @@
         <v>0</v>
       </c>
       <c r="M200" t="n">
-        <v>0</v>
+        <v>11.52200000000002</v>
       </c>
       <c r="N200" t="n">
-        <v>11.52200000000002</v>
+        <v>0.2</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2</v>
+        <v>3.298697014679202</v>
       </c>
       <c r="P200" t="n">
-        <v>3.298697014679202</v>
-      </c>
-      <c r="Q200" t="n">
         <v>0.149826966848095</v>
       </c>
     </row>
@@ -11105,18 +10503,15 @@
         <v>0</v>
       </c>
       <c r="M201" t="n">
-        <v>0</v>
+        <v>11.52200000000002</v>
       </c>
       <c r="N201" t="n">
-        <v>11.52200000000002</v>
+        <v>0.2</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P201" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q201" t="n">
         <v>0.1423057480440684</v>
       </c>
     </row>
@@ -11158,18 +10553,15 @@
         <v>0</v>
       </c>
       <c r="M202" t="n">
-        <v>0</v>
+        <v>11.52200000000002</v>
       </c>
       <c r="N202" t="n">
-        <v>11.52200000000002</v>
+        <v>0.2</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2</v>
+        <v>3.094538140182578</v>
       </c>
       <c r="P202" t="n">
-        <v>3.094538140182578</v>
-      </c>
-      <c r="Q202" t="n">
         <v>0.1352500232090361</v>
       </c>
     </row>
@@ -11211,18 +10603,15 @@
         <v>20.23</v>
       </c>
       <c r="M203" t="n">
-        <v>0</v>
+        <v>1.664800000000007</v>
       </c>
       <c r="N203" t="n">
-        <v>1.664800000000007</v>
+        <v>0</v>
       </c>
       <c r="O203" t="n">
-        <v>0</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P203" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q203" t="n">
         <v>0.68</v>
       </c>
     </row>
@@ -11264,18 +10653,15 @@
         <v>26.3</v>
       </c>
       <c r="M204" t="n">
-        <v>0</v>
+        <v>1.818999999999999</v>
       </c>
       <c r="N204" t="n">
-        <v>1.818999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="O204" t="n">
-        <v>0.4</v>
+        <v>3.38810774182619</v>
       </c>
       <c r="P204" t="n">
-        <v>3.38810774182619</v>
-      </c>
-      <c r="Q204" t="n">
         <v>0.077</v>
       </c>
     </row>
@@ -11317,18 +10703,15 @@
         <v>12.89</v>
       </c>
       <c r="M205" t="n">
-        <v>0</v>
+        <v>2.205000000000005</v>
       </c>
       <c r="N205" t="n">
-        <v>2.205000000000005</v>
+        <v>0</v>
       </c>
       <c r="O205" t="n">
-        <v>0</v>
+        <v>2.308669052291354</v>
       </c>
       <c r="P205" t="n">
-        <v>2.308669052291354</v>
-      </c>
-      <c r="Q205" t="n">
         <v>-0.04999999999999999</v>
       </c>
     </row>
@@ -11370,18 +10753,15 @@
         <v>63.19</v>
       </c>
       <c r="M206" t="n">
-        <v>0</v>
+        <v>31.13700000000001</v>
       </c>
       <c r="N206" t="n">
-        <v>31.13700000000001</v>
+        <v>0</v>
       </c>
       <c r="O206" t="n">
-        <v>0</v>
+        <v>1.911497658415368</v>
       </c>
       <c r="P206" t="n">
-        <v>1.911497658415368</v>
-      </c>
-      <c r="Q206" t="n">
         <v>0.0304</v>
       </c>
     </row>
@@ -11423,18 +10803,15 @@
         <v>0</v>
       </c>
       <c r="M207" t="n">
-        <v>0</v>
+        <v>20.48300000000001</v>
       </c>
       <c r="N207" t="n">
-        <v>20.48300000000001</v>
+        <v>0</v>
       </c>
       <c r="O207" t="n">
-        <v>0</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P207" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q207" t="n">
         <v>0.099</v>
       </c>
     </row>
@@ -11476,18 +10853,15 @@
         <v>26.3</v>
       </c>
       <c r="M208" t="n">
-        <v>0</v>
+        <v>9.703000000000021</v>
       </c>
       <c r="N208" t="n">
-        <v>9.703000000000021</v>
+        <v>0.4</v>
       </c>
       <c r="O208" t="n">
-        <v>0.4</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P208" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q208" t="n">
         <v>0.0044</v>
       </c>
     </row>
@@ -11529,18 +10903,15 @@
         <v>26.3</v>
       </c>
       <c r="M209" t="n">
-        <v>0</v>
+        <v>0.4910000000000139</v>
       </c>
       <c r="N209" t="n">
-        <v>0.4910000000000139</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="O209" t="n">
-        <v>0.5714285714285714</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P209" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q209" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -11582,18 +10953,15 @@
         <v>26.3</v>
       </c>
       <c r="M210" t="n">
-        <v>0</v>
+        <v>4.147999999999996</v>
       </c>
       <c r="N210" t="n">
-        <v>4.147999999999996</v>
+        <v>0.625</v>
       </c>
       <c r="O210" t="n">
-        <v>0.625</v>
+        <v>2.543558438255119</v>
       </c>
       <c r="P210" t="n">
-        <v>2.543558438255119</v>
-      </c>
-      <c r="Q210" t="n">
         <v>-0.002999999999999999</v>
       </c>
     </row>
@@ -11635,18 +11003,15 @@
         <v>0</v>
       </c>
       <c r="M211" t="n">
-        <v>0</v>
+        <v>16.13900000000001</v>
       </c>
       <c r="N211" t="n">
-        <v>16.13900000000001</v>
+        <v>0</v>
       </c>
       <c r="O211" t="n">
-        <v>0</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P211" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q211" t="n">
         <v>0.06467402524304965</v>
       </c>
     </row>
@@ -11688,18 +11053,15 @@
         <v>0</v>
       </c>
       <c r="M212" t="n">
-        <v>0</v>
+        <v>16.13900000000001</v>
       </c>
       <c r="N212" t="n">
-        <v>16.13900000000001</v>
+        <v>0</v>
       </c>
       <c r="O212" t="n">
-        <v>0</v>
+        <v>3.298697014679202</v>
       </c>
       <c r="P212" t="n">
-        <v>3.298697014679202</v>
-      </c>
-      <c r="Q212" t="n">
         <v>0.06128283193138712</v>
       </c>
     </row>
@@ -11741,18 +11103,15 @@
         <v>0</v>
       </c>
       <c r="M213" t="n">
-        <v>0</v>
+        <v>16.13900000000001</v>
       </c>
       <c r="N213" t="n">
-        <v>16.13900000000001</v>
+        <v>0</v>
       </c>
       <c r="O213" t="n">
-        <v>0</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P213" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q213" t="n">
         <v>0.05810822449305446</v>
       </c>
     </row>
@@ -11794,18 +11153,15 @@
         <v>0</v>
       </c>
       <c r="M214" t="n">
-        <v>0</v>
+        <v>16.13900000000001</v>
       </c>
       <c r="N214" t="n">
-        <v>16.13900000000001</v>
+        <v>0</v>
       </c>
       <c r="O214" t="n">
-        <v>0</v>
+        <v>3.094538140182578</v>
       </c>
       <c r="P214" t="n">
-        <v>3.094538140182578</v>
-      </c>
-      <c r="Q214" t="n">
         <v>0.05513009593068235</v>
       </c>
     </row>
@@ -11847,18 +11203,15 @@
         <v>26.3</v>
       </c>
       <c r="M215" t="n">
-        <v>0</v>
+        <v>13.38200000000002</v>
       </c>
       <c r="N215" t="n">
-        <v>13.38200000000002</v>
+        <v>0</v>
       </c>
       <c r="O215" t="n">
-        <v>0</v>
+        <v>2.335630036202266</v>
       </c>
       <c r="P215" t="n">
-        <v>2.335630036202266</v>
-      </c>
-      <c r="Q215" t="n">
         <v>-0.003500000000000001</v>
       </c>
     </row>
@@ -11900,18 +11253,15 @@
         <v>11.27</v>
       </c>
       <c r="M216" t="n">
-        <v>0</v>
+        <v>9.212000000000002</v>
       </c>
       <c r="N216" t="n">
-        <v>9.212000000000002</v>
+        <v>0</v>
       </c>
       <c r="O216" t="n">
-        <v>0</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P216" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q216" t="n">
         <v>0.506</v>
       </c>
     </row>
@@ -11953,18 +11303,15 @@
         <v>0</v>
       </c>
       <c r="M217" t="n">
-        <v>0</v>
+        <v>25.518</v>
       </c>
       <c r="N217" t="n">
-        <v>25.518</v>
+        <v>0</v>
       </c>
       <c r="O217" t="n">
-        <v>0</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P217" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q217" t="n">
         <v>0.08288995394849054</v>
       </c>
     </row>
@@ -12006,18 +11353,15 @@
         <v>0</v>
       </c>
       <c r="M218" t="n">
-        <v>0</v>
+        <v>25.518</v>
       </c>
       <c r="N218" t="n">
-        <v>25.518</v>
+        <v>0</v>
       </c>
       <c r="O218" t="n">
-        <v>0</v>
+        <v>3.298697014679202</v>
       </c>
       <c r="P218" t="n">
-        <v>3.298697014679202</v>
-      </c>
-      <c r="Q218" t="n">
         <v>0.07958169223156854</v>
       </c>
     </row>
@@ -12059,18 +11403,15 @@
         <v>0</v>
       </c>
       <c r="M219" t="n">
-        <v>0</v>
+        <v>25.518</v>
       </c>
       <c r="N219" t="n">
-        <v>25.518</v>
+        <v>0</v>
       </c>
       <c r="O219" t="n">
-        <v>0</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P219" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q219" t="n">
         <v>0.07648471978285168</v>
       </c>
     </row>
@@ -12112,18 +11453,15 @@
         <v>0</v>
       </c>
       <c r="M220" t="n">
-        <v>0</v>
+        <v>25.518</v>
       </c>
       <c r="N220" t="n">
-        <v>25.518</v>
+        <v>0</v>
       </c>
       <c r="O220" t="n">
-        <v>0</v>
+        <v>3.094538140182578</v>
       </c>
       <c r="P220" t="n">
-        <v>3.094538140182578</v>
-      </c>
-      <c r="Q220" t="n">
         <v>0.07357942132136779</v>
       </c>
     </row>
@@ -12165,18 +11503,15 @@
         <v>17.07</v>
       </c>
       <c r="M221" t="n">
-        <v>0</v>
+        <v>20.17800000000001</v>
       </c>
       <c r="N221" t="n">
-        <v>20.17800000000001</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O221" t="n">
-        <v>0.6666666666666666</v>
+        <v>3.365303718660609</v>
       </c>
       <c r="P221" t="n">
-        <v>3.365303718660609</v>
-      </c>
-      <c r="Q221" t="n">
         <v>0.68</v>
       </c>
     </row>
@@ -12218,18 +11553,15 @@
         <v>17.07</v>
       </c>
       <c r="M222" t="n">
-        <v>0</v>
+        <v>20.17800000000001</v>
       </c>
       <c r="N222" t="n">
-        <v>20.17800000000001</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O222" t="n">
-        <v>0.6666666666666666</v>
+        <v>3.634381246592768</v>
       </c>
       <c r="P222" t="n">
-        <v>3.634381246592768</v>
-      </c>
-      <c r="Q222" t="n">
         <v>0.73</v>
       </c>
     </row>
@@ -12271,18 +11603,15 @@
         <v>9.23</v>
       </c>
       <c r="M223" t="n">
-        <v>0</v>
+        <v>10.47499999999999</v>
       </c>
       <c r="N223" t="n">
-        <v>10.47499999999999</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O223" t="n">
-        <v>0.6666666666666666</v>
+        <v>3.365303718660609</v>
       </c>
       <c r="P223" t="n">
-        <v>3.365303718660609</v>
-      </c>
-      <c r="Q223" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -12324,18 +11653,15 @@
         <v>9.23</v>
       </c>
       <c r="M224" t="n">
-        <v>0</v>
+        <v>10.47499999999999</v>
       </c>
       <c r="N224" t="n">
-        <v>10.47499999999999</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O224" t="n">
-        <v>0.6666666666666666</v>
+        <v>3.634381246592768</v>
       </c>
       <c r="P224" t="n">
-        <v>3.634381246592768</v>
-      </c>
-      <c r="Q224" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -12377,18 +11703,15 @@
         <v>57.53</v>
       </c>
       <c r="M225" t="n">
-        <v>0</v>
+        <v>39.50540000000004</v>
       </c>
       <c r="N225" t="n">
-        <v>39.50540000000004</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O225" t="n">
-        <v>0.6666666666666666</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P225" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q225" t="n">
         <v>0.4649957359713457</v>
       </c>
     </row>
@@ -12430,18 +11753,15 @@
         <v>57.53</v>
       </c>
       <c r="M226" t="n">
-        <v>0</v>
+        <v>39.50540000000004</v>
       </c>
       <c r="N226" t="n">
-        <v>39.50540000000004</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O226" t="n">
-        <v>0.6666666666666666</v>
+        <v>3.298697014679202</v>
       </c>
       <c r="P226" t="n">
-        <v>3.298697014679202</v>
-      </c>
-      <c r="Q226" t="n">
         <v>0.459223156853043</v>
       </c>
     </row>
@@ -12483,18 +11803,15 @@
         <v>57.53</v>
       </c>
       <c r="M227" t="n">
-        <v>0</v>
+        <v>39.50540000000004</v>
       </c>
       <c r="N227" t="n">
-        <v>39.50540000000004</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O227" t="n">
-        <v>0.6666666666666666</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P227" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q227" t="n">
         <v>0.453819255947629</v>
       </c>
     </row>
@@ -12536,18 +11853,15 @@
         <v>57.53</v>
       </c>
       <c r="M228" t="n">
-        <v>0</v>
+        <v>39.50540000000004</v>
       </c>
       <c r="N228" t="n">
-        <v>39.50540000000004</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O228" t="n">
-        <v>0.6666666666666666</v>
+        <v>3.094538140182578</v>
       </c>
       <c r="P228" t="n">
-        <v>3.094538140182578</v>
-      </c>
-      <c r="Q228" t="n">
         <v>0.4487498065913662</v>
       </c>
     </row>
@@ -12589,18 +11903,15 @@
         <v>12.53</v>
       </c>
       <c r="M229" t="n">
-        <v>0</v>
+        <v>25.71400000000001</v>
       </c>
       <c r="N229" t="n">
-        <v>25.71400000000001</v>
+        <v>1</v>
       </c>
       <c r="O229" t="n">
-        <v>1</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P229" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q229" t="n">
         <v>0.07865444311785777</v>
       </c>
     </row>
@@ -12642,18 +11953,15 @@
         <v>12.53</v>
       </c>
       <c r="M230" t="n">
-        <v>0</v>
+        <v>25.71400000000001</v>
       </c>
       <c r="N230" t="n">
-        <v>25.71400000000001</v>
+        <v>1</v>
       </c>
       <c r="O230" t="n">
-        <v>1</v>
+        <v>3.298697014679202</v>
       </c>
       <c r="P230" t="n">
-        <v>3.298697014679202</v>
-      </c>
-      <c r="Q230" t="n">
         <v>0.07530117103744022</v>
       </c>
     </row>
@@ -12695,18 +12003,15 @@
         <v>12.53</v>
       </c>
       <c r="M231" t="n">
-        <v>0</v>
+        <v>25.71400000000001</v>
       </c>
       <c r="N231" t="n">
-        <v>25.71400000000001</v>
+        <v>1</v>
       </c>
       <c r="O231" t="n">
-        <v>1</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P231" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q231" t="n">
         <v>0.07216206290914898</v>
       </c>
     </row>
@@ -12748,18 +12053,15 @@
         <v>12.53</v>
       </c>
       <c r="M232" t="n">
-        <v>0</v>
+        <v>25.71400000000001</v>
       </c>
       <c r="N232" t="n">
-        <v>25.71400000000001</v>
+        <v>1</v>
       </c>
       <c r="O232" t="n">
-        <v>1</v>
+        <v>3.094538140182578</v>
       </c>
       <c r="P232" t="n">
-        <v>3.094538140182578</v>
-      </c>
-      <c r="Q232" t="n">
         <v>0.06921723657744083</v>
       </c>
     </row>
@@ -12801,18 +12103,15 @@
         <v>26.3</v>
       </c>
       <c r="M233" t="n">
-        <v>0</v>
+        <v>9.703000000000021</v>
       </c>
       <c r="N233" t="n">
-        <v>9.703000000000021</v>
+        <v>0.4</v>
       </c>
       <c r="O233" t="n">
-        <v>0.4</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P233" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q233" t="n">
         <v>0.04341405423844448</v>
       </c>
     </row>
@@ -12854,18 +12153,15 @@
         <v>26.3</v>
       </c>
       <c r="M234" t="n">
-        <v>0</v>
+        <v>9.703000000000021</v>
       </c>
       <c r="N234" t="n">
-        <v>9.703000000000021</v>
+        <v>0.4</v>
       </c>
       <c r="O234" t="n">
-        <v>0.4</v>
+        <v>3.298697014679202</v>
       </c>
       <c r="P234" t="n">
-        <v>3.298697014679202</v>
-      </c>
-      <c r="Q234" t="n">
         <v>0.04291218868546924</v>
       </c>
     </row>
@@ -12907,18 +12203,15 @@
         <v>26.3</v>
       </c>
       <c r="M235" t="n">
-        <v>0</v>
+        <v>9.703000000000021</v>
       </c>
       <c r="N235" t="n">
-        <v>9.703000000000021</v>
+        <v>0.4</v>
       </c>
       <c r="O235" t="n">
-        <v>0.4</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P235" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q235" t="n">
         <v>0.04244237585821491</v>
       </c>
     </row>
@@ -12960,18 +12253,15 @@
         <v>26.3</v>
       </c>
       <c r="M236" t="n">
-        <v>0</v>
+        <v>9.703000000000021</v>
       </c>
       <c r="N236" t="n">
-        <v>9.703000000000021</v>
+        <v>0.4</v>
       </c>
       <c r="O236" t="n">
-        <v>0.4</v>
+        <v>3.094538140182578</v>
       </c>
       <c r="P236" t="n">
-        <v>3.094538140182578</v>
-      </c>
-      <c r="Q236" t="n">
         <v>0.0420016401052143</v>
       </c>
     </row>
@@ -13013,18 +12303,15 @@
         <v>57.53</v>
       </c>
       <c r="M237" t="n">
-        <v>0</v>
+        <v>17.21640000000001</v>
       </c>
       <c r="N237" t="n">
-        <v>17.21640000000001</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O237" t="n">
-        <v>0.6666666666666666</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P237" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q237" t="n">
         <v>0.3173984308374553</v>
       </c>
     </row>
@@ -13066,18 +12353,15 @@
         <v>57.53</v>
       </c>
       <c r="M238" t="n">
-        <v>0</v>
+        <v>17.21640000000001</v>
       </c>
       <c r="N238" t="n">
-        <v>17.21640000000001</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O238" t="n">
-        <v>0.6666666666666666</v>
+        <v>3.298697014679202</v>
       </c>
       <c r="P238" t="n">
-        <v>3.298697014679202</v>
-      </c>
-      <c r="Q238" t="n">
         <v>0.2999681675738084</v>
       </c>
     </row>
@@ -13119,18 +12403,15 @@
         <v>57.53</v>
       </c>
       <c r="M239" t="n">
-        <v>0</v>
+        <v>17.21640000000001</v>
       </c>
       <c r="N239" t="n">
-        <v>17.21640000000001</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O239" t="n">
-        <v>0.6666666666666666</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P239" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q239" t="n">
         <v>0.2836511256586302</v>
       </c>
     </row>
@@ -13172,18 +12453,15 @@
         <v>57.53</v>
       </c>
       <c r="M240" t="n">
-        <v>0</v>
+        <v>17.21640000000001</v>
       </c>
       <c r="N240" t="n">
-        <v>17.21640000000001</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O240" t="n">
-        <v>0.6666666666666666</v>
+        <v>3.094538140182578</v>
       </c>
       <c r="P240" t="n">
-        <v>3.094538140182578</v>
-      </c>
-      <c r="Q240" t="n">
         <v>0.2683439579142813</v>
       </c>
     </row>
@@ -13225,18 +12503,15 @@
         <v>12.53</v>
       </c>
       <c r="M241" t="n">
-        <v>0</v>
+        <v>14.19199999999999</v>
       </c>
       <c r="N241" t="n">
-        <v>14.19199999999999</v>
+        <v>0.2</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P241" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q241" t="n">
         <v>0.346729490022173</v>
       </c>
     </row>
@@ -13278,18 +12553,15 @@
         <v>12.53</v>
       </c>
       <c r="M242" t="n">
-        <v>0</v>
+        <v>14.19199999999999</v>
       </c>
       <c r="N242" t="n">
-        <v>14.19199999999999</v>
+        <v>0.2</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2</v>
+        <v>3.298697014679202</v>
       </c>
       <c r="P242" t="n">
-        <v>3.298697014679202</v>
-      </c>
-      <c r="Q242" t="n">
         <v>0.3394153059541481</v>
       </c>
     </row>
@@ -13331,18 +12603,15 @@
         <v>12.53</v>
       </c>
       <c r="M243" t="n">
-        <v>0</v>
+        <v>14.19199999999999</v>
       </c>
       <c r="N243" t="n">
-        <v>14.19199999999999</v>
+        <v>0.2</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P243" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q243" t="n">
         <v>0.3325682580233115</v>
       </c>
     </row>
@@ -13384,18 +12653,15 @@
         <v>12.53</v>
       </c>
       <c r="M244" t="n">
-        <v>0</v>
+        <v>14.19199999999999</v>
       </c>
       <c r="N244" t="n">
-        <v>14.19199999999999</v>
+        <v>0.2</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2</v>
+        <v>3.094538140182578</v>
       </c>
       <c r="P244" t="n">
-        <v>3.094538140182578</v>
-      </c>
-      <c r="Q244" t="n">
         <v>0.3261449791118676</v>
       </c>
     </row>
@@ -13437,18 +12703,15 @@
         <v>0</v>
       </c>
       <c r="M245" t="n">
-        <v>0</v>
+        <v>25.27900000000001</v>
       </c>
       <c r="N245" t="n">
-        <v>25.27900000000001</v>
+        <v>0</v>
       </c>
       <c r="O245" t="n">
-        <v>0</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P245" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q245" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
@@ -13490,18 +12753,15 @@
         <v>26.3</v>
       </c>
       <c r="M246" t="n">
-        <v>0</v>
+        <v>15.47399999999999</v>
       </c>
       <c r="N246" t="n">
-        <v>15.47399999999999</v>
+        <v>0</v>
       </c>
       <c r="O246" t="n">
-        <v>0</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P246" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q246" t="n">
         <v>-0.07000000000000001</v>
       </c>
     </row>
@@ -13543,18 +12803,15 @@
         <v>12.89</v>
       </c>
       <c r="M247" t="n">
-        <v>0</v>
+        <v>2.205000000000005</v>
       </c>
       <c r="N247" t="n">
-        <v>2.205000000000005</v>
+        <v>0</v>
       </c>
       <c r="O247" t="n">
-        <v>0</v>
+        <v>2.308669052291354</v>
       </c>
       <c r="P247" t="n">
-        <v>2.308669052291354</v>
-      </c>
-      <c r="Q247" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -13596,18 +12853,15 @@
         <v>12.89</v>
       </c>
       <c r="M248" t="n">
-        <v>0</v>
+        <v>2.205000000000005</v>
       </c>
       <c r="N248" t="n">
-        <v>2.205000000000005</v>
+        <v>0</v>
       </c>
       <c r="O248" t="n">
-        <v>0</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P248" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q248" t="n">
         <v>0.001451564557393826</v>
       </c>
     </row>
@@ -13649,18 +12903,15 @@
         <v>12.89</v>
       </c>
       <c r="M249" t="n">
-        <v>0</v>
+        <v>2.205000000000005</v>
       </c>
       <c r="N249" t="n">
-        <v>2.205000000000005</v>
+        <v>0</v>
       </c>
       <c r="O249" t="n">
-        <v>0</v>
+        <v>3.298697014679202</v>
       </c>
       <c r="P249" t="n">
-        <v>3.298697014679202</v>
-      </c>
-      <c r="Q249" t="n">
         <v>0.001397777173016659</v>
       </c>
     </row>
@@ -13702,18 +12953,15 @@
         <v>12.89</v>
       </c>
       <c r="M250" t="n">
-        <v>0</v>
+        <v>2.205000000000005</v>
       </c>
       <c r="N250" t="n">
-        <v>2.205000000000005</v>
+        <v>0</v>
       </c>
       <c r="O250" t="n">
-        <v>0</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P250" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q250" t="n">
         <v>0.001347425035925276</v>
       </c>
     </row>
@@ -13755,18 +13003,15 @@
         <v>12.89</v>
       </c>
       <c r="M251" t="n">
-        <v>0</v>
+        <v>2.205000000000005</v>
       </c>
       <c r="N251" t="n">
-        <v>2.205000000000005</v>
+        <v>0</v>
       </c>
       <c r="O251" t="n">
-        <v>0</v>
+        <v>3.094538140182578</v>
       </c>
       <c r="P251" t="n">
-        <v>3.094538140182578</v>
-      </c>
-      <c r="Q251" t="n">
         <v>0.001300189231007272</v>
       </c>
     </row>
@@ -13808,18 +13053,15 @@
         <v>18.97</v>
       </c>
       <c r="M252" t="n">
-        <v>0</v>
+        <v>7.205200000000001</v>
       </c>
       <c r="N252" t="n">
-        <v>7.205200000000001</v>
+        <v>0</v>
       </c>
       <c r="O252" t="n">
-        <v>0</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P252" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q252" t="n">
         <v>0.426</v>
       </c>
     </row>
@@ -13861,18 +13103,15 @@
         <v>0</v>
       </c>
       <c r="M253" t="n">
-        <v>0</v>
+        <v>11.52200000000002</v>
       </c>
       <c r="N253" t="n">
-        <v>11.52200000000002</v>
+        <v>0.2</v>
       </c>
       <c r="O253" t="n">
-        <v>0.2</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P253" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q253" t="n">
         <v>0.06149363806924783</v>
       </c>
     </row>
@@ -13914,18 +13153,15 @@
         <v>0</v>
       </c>
       <c r="M254" t="n">
-        <v>0</v>
+        <v>11.52200000000002</v>
       </c>
       <c r="N254" t="n">
-        <v>11.52200000000002</v>
+        <v>0.2</v>
       </c>
       <c r="O254" t="n">
-        <v>0.2</v>
+        <v>3.298697014679202</v>
       </c>
       <c r="P254" t="n">
-        <v>3.298697014679202</v>
-      </c>
-      <c r="Q254" t="n">
         <v>0.05895055253174997</v>
       </c>
     </row>
@@ -13967,18 +13203,15 @@
         <v>0</v>
       </c>
       <c r="M255" t="n">
-        <v>0</v>
+        <v>11.52200000000002</v>
       </c>
       <c r="N255" t="n">
-        <v>11.52200000000002</v>
+        <v>0.2</v>
       </c>
       <c r="O255" t="n">
-        <v>0.2</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P255" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q255" t="n">
         <v>0.05656988663579755</v>
       </c>
     </row>
@@ -14020,18 +13253,15 @@
         <v>0</v>
       </c>
       <c r="M256" t="n">
-        <v>0</v>
+        <v>11.52200000000002</v>
       </c>
       <c r="N256" t="n">
-        <v>11.52200000000002</v>
+        <v>0.2</v>
       </c>
       <c r="O256" t="n">
-        <v>0.2</v>
+        <v>3.094538140182578</v>
       </c>
       <c r="P256" t="n">
-        <v>3.094538140182578</v>
-      </c>
-      <c r="Q256" t="n">
         <v>0.05433656196812627</v>
       </c>
     </row>
@@ -14073,18 +13303,15 @@
         <v>12.53</v>
       </c>
       <c r="M257" t="n">
-        <v>0</v>
+        <v>25.71400000000001</v>
       </c>
       <c r="N257" t="n">
-        <v>25.71400000000001</v>
+        <v>1</v>
       </c>
       <c r="O257" t="n">
-        <v>1</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="P257" t="n">
-        <v>2.564102564102564</v>
-      </c>
-      <c r="Q257" t="n">
         <v>0.0535102564102564</v>
       </c>
     </row>
@@ -14126,18 +13353,15 @@
         <v>12.53</v>
       </c>
       <c r="M258" t="n">
-        <v>0</v>
+        <v>25.71400000000001</v>
       </c>
       <c r="N258" t="n">
-        <v>25.71400000000001</v>
+        <v>1</v>
       </c>
       <c r="O258" t="n">
-        <v>1</v>
+        <v>2.318840579710145</v>
       </c>
       <c r="P258" t="n">
-        <v>2.318840579710145</v>
-      </c>
-      <c r="Q258" t="n">
         <v>0.04620144927536232</v>
       </c>
     </row>
@@ -14179,18 +13403,15 @@
         <v>12.53</v>
       </c>
       <c r="M259" t="n">
-        <v>0</v>
+        <v>25.71400000000001</v>
       </c>
       <c r="N259" t="n">
-        <v>25.71400000000001</v>
+        <v>1</v>
       </c>
       <c r="O259" t="n">
-        <v>1</v>
+        <v>1.94647201946472</v>
       </c>
       <c r="P259" t="n">
-        <v>1.94647201946472</v>
-      </c>
-      <c r="Q259" t="n">
         <v>0.03510486618004867</v>
       </c>
     </row>
@@ -14232,18 +13453,15 @@
         <v>12.53</v>
       </c>
       <c r="M260" t="n">
-        <v>0</v>
+        <v>25.71400000000001</v>
       </c>
       <c r="N260" t="n">
-        <v>25.71400000000001</v>
+        <v>1</v>
       </c>
       <c r="O260" t="n">
-        <v>1</v>
+        <v>1.801801801801802</v>
       </c>
       <c r="P260" t="n">
-        <v>1.801801801801802</v>
-      </c>
-      <c r="Q260" t="n">
         <v>0.03079369369369369</v>
       </c>
     </row>
@@ -14285,18 +13503,15 @@
         <v>12.53</v>
       </c>
       <c r="M261" t="n">
-        <v>0</v>
+        <v>14.19199999999999</v>
       </c>
       <c r="N261" t="n">
-        <v>14.19199999999999</v>
+        <v>1</v>
       </c>
       <c r="O261" t="n">
-        <v>1</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P261" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q261" t="n">
         <v>0.324743476036159</v>
       </c>
     </row>
@@ -14338,18 +13553,15 @@
         <v>12.53</v>
       </c>
       <c r="M262" t="n">
-        <v>0</v>
+        <v>14.19199999999999</v>
       </c>
       <c r="N262" t="n">
-        <v>14.19199999999999</v>
+        <v>1</v>
       </c>
       <c r="O262" t="n">
-        <v>1</v>
+        <v>3.298697014679202</v>
       </c>
       <c r="P262" t="n">
-        <v>3.298697014679202</v>
-      </c>
-      <c r="Q262" t="n">
         <v>0.3178906481939634</v>
       </c>
     </row>
@@ -14391,18 +13603,15 @@
         <v>12.53</v>
       </c>
       <c r="M263" t="n">
-        <v>0</v>
+        <v>14.19199999999999</v>
       </c>
       <c r="N263" t="n">
-        <v>14.19199999999999</v>
+        <v>1</v>
       </c>
       <c r="O263" t="n">
-        <v>1</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P263" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q263" t="n">
         <v>0.3114754909787642</v>
       </c>
     </row>
@@ -14444,18 +13653,15 @@
         <v>12.53</v>
       </c>
       <c r="M264" t="n">
-        <v>0</v>
+        <v>14.19199999999999</v>
       </c>
       <c r="N264" t="n">
-        <v>14.19199999999999</v>
+        <v>1</v>
       </c>
       <c r="O264" t="n">
-        <v>1</v>
+        <v>3.094538140182578</v>
       </c>
       <c r="P264" t="n">
-        <v>3.094538140182578</v>
-      </c>
-      <c r="Q264" t="n">
         <v>0.305457372737119</v>
       </c>
     </row>
@@ -14497,18 +13703,15 @@
         <v>0</v>
       </c>
       <c r="M265" t="n">
-        <v>0</v>
+        <v>16.13900000000001</v>
       </c>
       <c r="N265" t="n">
-        <v>16.13900000000001</v>
+        <v>0</v>
       </c>
       <c r="O265" t="n">
-        <v>0</v>
+        <v>3.355704697986577</v>
       </c>
       <c r="P265" t="n">
-        <v>3.355704697986577</v>
-      </c>
-      <c r="Q265" t="n">
         <v>0.09148322147651007</v>
       </c>
     </row>
@@ -14550,18 +13753,15 @@
         <v>0</v>
       </c>
       <c r="M266" t="n">
-        <v>0</v>
+        <v>10.39000000000001</v>
       </c>
       <c r="N266" t="n">
-        <v>10.39000000000001</v>
+        <v>1</v>
       </c>
       <c r="O266" t="n">
-        <v>1</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P266" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q266" t="n">
         <v>0.72</v>
       </c>
     </row>
@@ -14603,18 +13803,15 @@
         <v>0</v>
       </c>
       <c r="M267" t="n">
-        <v>0</v>
+        <v>10.09100000000002</v>
       </c>
       <c r="N267" t="n">
-        <v>10.09100000000002</v>
+        <v>0</v>
       </c>
       <c r="O267" t="n">
-        <v>0</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P267" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q267" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -14656,18 +13853,15 @@
         <v>0</v>
       </c>
       <c r="M268" t="n">
-        <v>0</v>
+        <v>5.081000000000014</v>
       </c>
       <c r="N268" t="n">
-        <v>5.081000000000014</v>
+        <v>0</v>
       </c>
       <c r="O268" t="n">
-        <v>0</v>
+        <v>2.957267484844004</v>
       </c>
       <c r="P268" t="n">
-        <v>2.957267484844004</v>
-      </c>
-      <c r="Q268" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -14709,18 +13903,15 @@
         <v>0</v>
       </c>
       <c r="M269" t="n">
-        <v>0</v>
+        <v>5.354000000000017</v>
       </c>
       <c r="N269" t="n">
-        <v>5.354000000000017</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="O269" t="n">
-        <v>0.1428571428571428</v>
+        <v>2.957267484844004</v>
       </c>
       <c r="P269" t="n">
-        <v>2.957267484844004</v>
-      </c>
-      <c r="Q269" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -14762,18 +13953,15 @@
         <v>0</v>
       </c>
       <c r="M270" t="n">
-        <v>0</v>
+        <v>10.31900000000001</v>
       </c>
       <c r="N270" t="n">
-        <v>10.31900000000001</v>
+        <v>1</v>
       </c>
       <c r="O270" t="n">
-        <v>1</v>
+        <v>2.957267484844004</v>
       </c>
       <c r="P270" t="n">
-        <v>2.957267484844004</v>
-      </c>
-      <c r="Q270" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -14815,18 +14003,15 @@
         <v>57.53</v>
       </c>
       <c r="M271" t="n">
-        <v>0</v>
+        <v>7.125399999999992</v>
       </c>
       <c r="N271" t="n">
-        <v>7.125399999999992</v>
+        <v>0</v>
       </c>
       <c r="O271" t="n">
-        <v>0</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P271" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q271" t="n">
         <v>2.03</v>
       </c>
     </row>
@@ -14868,18 +14053,15 @@
         <v>57.53</v>
       </c>
       <c r="M272" t="n">
-        <v>0</v>
+        <v>6.8264</v>
       </c>
       <c r="N272" t="n">
-        <v>6.8264</v>
+        <v>1</v>
       </c>
       <c r="O272" t="n">
-        <v>1</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P272" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q272" t="n">
         <v>3.18</v>
       </c>
     </row>
@@ -14921,18 +14103,15 @@
         <v>57.53</v>
       </c>
       <c r="M273" t="n">
-        <v>0</v>
+        <v>12.13539999999999</v>
       </c>
       <c r="N273" t="n">
-        <v>12.13539999999999</v>
+        <v>0</v>
       </c>
       <c r="O273" t="n">
-        <v>0</v>
+        <v>2.957267484844004</v>
       </c>
       <c r="P273" t="n">
-        <v>2.957267484844004</v>
-      </c>
-      <c r="Q273" t="n">
         <v>2.37</v>
       </c>
     </row>
@@ -14974,18 +14153,15 @@
         <v>57.53</v>
       </c>
       <c r="M274" t="n">
-        <v>0</v>
+        <v>11.86239999999999</v>
       </c>
       <c r="N274" t="n">
-        <v>11.86239999999999</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="O274" t="n">
-        <v>0.1428571428571428</v>
+        <v>2.957267484844004</v>
       </c>
       <c r="P274" t="n">
-        <v>2.957267484844004</v>
-      </c>
-      <c r="Q274" t="n">
         <v>2.45</v>
       </c>
     </row>
@@ -15027,18 +14203,15 @@
         <v>57.53</v>
       </c>
       <c r="M275" t="n">
-        <v>0</v>
+        <v>6.897399999999994</v>
       </c>
       <c r="N275" t="n">
-        <v>6.897399999999994</v>
+        <v>1</v>
       </c>
       <c r="O275" t="n">
-        <v>1</v>
+        <v>2.957267484844004</v>
       </c>
       <c r="P275" t="n">
-        <v>2.957267484844004</v>
-      </c>
-      <c r="Q275" t="n">
         <v>2.38</v>
       </c>
     </row>
@@ -15080,18 +14253,15 @@
         <v>0</v>
       </c>
       <c r="M276" t="n">
-        <v>0</v>
+        <v>15.18600000000001</v>
       </c>
       <c r="N276" t="n">
-        <v>15.18600000000001</v>
+        <v>1</v>
       </c>
       <c r="O276" t="n">
-        <v>1</v>
+        <v>2.957267484844004</v>
       </c>
       <c r="P276" t="n">
-        <v>2.957267484844004</v>
-      </c>
-      <c r="Q276" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -15133,18 +14303,15 @@
         <v>0</v>
       </c>
       <c r="M277" t="n">
-        <v>0</v>
+        <v>19.96000000000001</v>
       </c>
       <c r="N277" t="n">
-        <v>19.96000000000001</v>
+        <v>1</v>
       </c>
       <c r="O277" t="n">
-        <v>1</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P277" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q277" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -15186,18 +14353,15 @@
         <v>0</v>
       </c>
       <c r="M278" t="n">
-        <v>0</v>
+        <v>0.6170000000000115</v>
       </c>
       <c r="N278" t="n">
-        <v>0.6170000000000115</v>
+        <v>0.25</v>
       </c>
       <c r="O278" t="n">
-        <v>0.25</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P278" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q278" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -15239,18 +14403,15 @@
         <v>57.53</v>
       </c>
       <c r="M279" t="n">
-        <v>0</v>
+        <v>2.030399999999997</v>
       </c>
       <c r="N279" t="n">
-        <v>2.030399999999997</v>
+        <v>1</v>
       </c>
       <c r="O279" t="n">
-        <v>1</v>
+        <v>2.957267484844004</v>
       </c>
       <c r="P279" t="n">
-        <v>2.957267484844004</v>
-      </c>
-      <c r="Q279" t="n">
         <v>0.58</v>
       </c>
     </row>
@@ -15292,18 +14453,15 @@
         <v>57.53</v>
       </c>
       <c r="M280" t="n">
-        <v>0</v>
+        <v>2.743600000000001</v>
       </c>
       <c r="N280" t="n">
-        <v>2.743600000000001</v>
+        <v>1</v>
       </c>
       <c r="O280" t="n">
-        <v>1</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P280" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q280" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -15345,18 +14503,15 @@
         <v>57.53</v>
       </c>
       <c r="M281" t="n">
-        <v>0</v>
+        <v>2.123399999999993</v>
       </c>
       <c r="N281" t="n">
-        <v>2.123399999999993</v>
+        <v>1</v>
       </c>
       <c r="O281" t="n">
-        <v>1</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P281" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q281" t="n">
         <v>1.02</v>
       </c>
     </row>
@@ -15398,18 +14553,15 @@
         <v>57.53</v>
       </c>
       <c r="M282" t="n">
-        <v>0</v>
+        <v>16.5994</v>
       </c>
       <c r="N282" t="n">
-        <v>16.5994</v>
+        <v>0.25</v>
       </c>
       <c r="O282" t="n">
-        <v>0.25</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P282" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q282" t="n">
         <v>2.19</v>
       </c>
     </row>
@@ -15451,18 +14603,15 @@
         <v>26.3</v>
       </c>
       <c r="M283" t="n">
-        <v>0</v>
+        <v>13.38200000000002</v>
       </c>
       <c r="N283" t="n">
-        <v>13.38200000000002</v>
+        <v>0.7</v>
       </c>
       <c r="O283" t="n">
-        <v>0.7</v>
+        <v>2.364066193853428</v>
       </c>
       <c r="P283" t="n">
-        <v>2.364066193853428</v>
-      </c>
-      <c r="Q283" t="n">
         <v>0.04429078014184398</v>
       </c>
     </row>
@@ -15504,18 +14653,15 @@
         <v>26.3</v>
       </c>
       <c r="M284" t="n">
-        <v>0</v>
+        <v>13.38200000000002</v>
       </c>
       <c r="N284" t="n">
-        <v>13.38200000000002</v>
+        <v>0.7</v>
       </c>
       <c r="O284" t="n">
-        <v>0.7</v>
+        <v>2.276607854297097</v>
       </c>
       <c r="P284" t="n">
-        <v>2.276607854297097</v>
-      </c>
-      <c r="Q284" t="n">
         <v>0.0439470688673876</v>
       </c>
     </row>
@@ -15557,18 +14703,15 @@
         <v>26.3</v>
       </c>
       <c r="M285" t="n">
-        <v>0</v>
+        <v>13.38200000000002</v>
       </c>
       <c r="N285" t="n">
-        <v>13.38200000000002</v>
+        <v>0.7</v>
       </c>
       <c r="O285" t="n">
-        <v>0.7</v>
+        <v>2.119766825649179</v>
       </c>
       <c r="P285" t="n">
-        <v>2.119766825649179</v>
-      </c>
-      <c r="Q285" t="n">
         <v>0.04333068362480128</v>
       </c>
     </row>
@@ -15610,18 +14753,15 @@
         <v>26.3</v>
       </c>
       <c r="M286" t="n">
-        <v>0</v>
+        <v>13.38200000000002</v>
       </c>
       <c r="N286" t="n">
-        <v>13.38200000000002</v>
+        <v>0.7</v>
       </c>
       <c r="O286" t="n">
-        <v>0.7</v>
+        <v>2.049180327868852</v>
       </c>
       <c r="P286" t="n">
-        <v>2.049180327868852</v>
-      </c>
-      <c r="Q286" t="n">
         <v>0.04305327868852459</v>
       </c>
     </row>
@@ -15663,18 +14803,15 @@
         <v>0</v>
       </c>
       <c r="M287" t="n">
-        <v>0</v>
+        <v>16.13900000000001</v>
       </c>
       <c r="N287" t="n">
-        <v>16.13900000000001</v>
+        <v>0</v>
       </c>
       <c r="O287" t="n">
-        <v>0</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P287" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q287" t="n">
         <v>0.05298263175848542</v>
       </c>
     </row>
@@ -15716,18 +14853,15 @@
         <v>0</v>
       </c>
       <c r="M288" t="n">
-        <v>0</v>
+        <v>16.13900000000001</v>
       </c>
       <c r="N288" t="n">
-        <v>16.13900000000001</v>
+        <v>0</v>
       </c>
       <c r="O288" t="n">
-        <v>0</v>
+        <v>3.298697014679202</v>
       </c>
       <c r="P288" t="n">
-        <v>3.298697014679202</v>
-      </c>
-      <c r="Q288" t="n">
         <v>0.05145227939963715</v>
       </c>
     </row>
@@ -15769,18 +14903,15 @@
         <v>0</v>
       </c>
       <c r="M289" t="n">
-        <v>0</v>
+        <v>16.13900000000001</v>
       </c>
       <c r="N289" t="n">
-        <v>16.13900000000001</v>
+        <v>0</v>
       </c>
       <c r="O289" t="n">
-        <v>0</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P289" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q289" t="n">
         <v>0.05001966629410826</v>
       </c>
     </row>
@@ -15822,18 +14953,15 @@
         <v>0</v>
       </c>
       <c r="M290" t="n">
-        <v>0</v>
+        <v>16.13900000000001</v>
       </c>
       <c r="N290" t="n">
-        <v>16.13900000000001</v>
+        <v>0</v>
       </c>
       <c r="O290" t="n">
-        <v>0</v>
+        <v>3.094538140182578</v>
       </c>
       <c r="P290" t="n">
-        <v>3.094538140182578</v>
-      </c>
-      <c r="Q290" t="n">
         <v>0.04867571870648306</v>
       </c>
     </row>
@@ -15875,18 +15003,15 @@
         <v>0</v>
       </c>
       <c r="M291" t="n">
-        <v>0</v>
+        <v>15.09300000000001</v>
       </c>
       <c r="N291" t="n">
-        <v>15.09300000000001</v>
+        <v>1</v>
       </c>
       <c r="O291" t="n">
-        <v>1</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P291" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q291" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -15928,18 +15053,15 @@
         <v>26.3</v>
       </c>
       <c r="M292" t="n">
-        <v>0</v>
+        <v>0.4690000000000154</v>
       </c>
       <c r="N292" t="n">
-        <v>0.4690000000000154</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="O292" t="n">
-        <v>0.5714285714285714</v>
+        <v>1.987478883036868</v>
       </c>
       <c r="P292" t="n">
-        <v>1.987478883036868</v>
-      </c>
-      <c r="Q292" t="n">
         <v>0.08699999999999999</v>
       </c>
     </row>
@@ -15981,18 +15103,15 @@
         <v>0</v>
       </c>
       <c r="M293" t="n">
-        <v>0</v>
+        <v>4.617000000000008</v>
       </c>
       <c r="N293" t="n">
-        <v>4.617000000000008</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="O293" t="n">
-        <v>0.5714285714285714</v>
+        <v>1.987478883036868</v>
       </c>
       <c r="P293" t="n">
-        <v>1.987478883036868</v>
-      </c>
-      <c r="Q293" t="n">
         <v>0.013</v>
       </c>
     </row>
@@ -16034,18 +15153,15 @@
         <v>26.3</v>
       </c>
       <c r="M294" t="n">
-        <v>0</v>
+        <v>4.147999999999996</v>
       </c>
       <c r="N294" t="n">
-        <v>4.147999999999996</v>
+        <v>0.625</v>
       </c>
       <c r="O294" t="n">
-        <v>0.625</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P294" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q294" t="n">
         <v>-0.0009999999999999974</v>
       </c>
     </row>
@@ -16087,18 +15203,15 @@
         <v>0</v>
       </c>
       <c r="M295" t="n">
-        <v>0</v>
+        <v>15.18600000000001</v>
       </c>
       <c r="N295" t="n">
-        <v>15.18600000000001</v>
+        <v>1</v>
       </c>
       <c r="O295" t="n">
-        <v>1</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P295" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q295" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -16140,18 +15253,15 @@
         <v>0</v>
       </c>
       <c r="M296" t="n">
-        <v>0</v>
+        <v>0.953000000000003</v>
       </c>
       <c r="N296" t="n">
-        <v>0.953000000000003</v>
+        <v>1</v>
       </c>
       <c r="O296" t="n">
-        <v>1</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P296" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q296" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -16193,18 +15303,15 @@
         <v>9.23</v>
       </c>
       <c r="M297" t="n">
-        <v>0</v>
+        <v>57.61500000000006</v>
       </c>
       <c r="N297" t="n">
-        <v>57.61500000000006</v>
+        <v>0.2</v>
       </c>
       <c r="O297" t="n">
-        <v>0.2</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P297" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q297" t="n">
         <v>0.02771055773494797</v>
       </c>
     </row>
@@ -16246,18 +15353,15 @@
         <v>9.23</v>
       </c>
       <c r="M298" t="n">
-        <v>0</v>
+        <v>57.61500000000006</v>
       </c>
       <c r="N298" t="n">
-        <v>57.61500000000006</v>
+        <v>0.2</v>
       </c>
       <c r="O298" t="n">
-        <v>0.2</v>
+        <v>3.298697014679202</v>
       </c>
       <c r="P298" t="n">
-        <v>3.298697014679202</v>
-      </c>
-      <c r="Q298" t="n">
         <v>0.02379465611083623</v>
       </c>
     </row>
@@ -16299,18 +15403,15 @@
         <v>9.23</v>
       </c>
       <c r="M299" t="n">
-        <v>0</v>
+        <v>57.61500000000006</v>
       </c>
       <c r="N299" t="n">
-        <v>57.61500000000006</v>
+        <v>0.2</v>
       </c>
       <c r="O299" t="n">
-        <v>0.2</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P299" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q299" t="n">
         <v>0.02012885198786524</v>
       </c>
     </row>
@@ -16352,18 +15453,15 @@
         <v>9.23</v>
       </c>
       <c r="M300" t="n">
-        <v>0</v>
+        <v>57.61500000000006</v>
       </c>
       <c r="N300" t="n">
-        <v>57.61500000000006</v>
+        <v>0.2</v>
       </c>
       <c r="O300" t="n">
-        <v>0.2</v>
+        <v>3.094538140182578</v>
       </c>
       <c r="P300" t="n">
-        <v>3.094538140182578</v>
-      </c>
-      <c r="Q300" t="n">
         <v>0.01668992727835371</v>
       </c>
     </row>
@@ -16405,18 +15503,15 @@
         <v>0</v>
       </c>
       <c r="M301" t="n">
-        <v>0</v>
+        <v>15.18600000000001</v>
       </c>
       <c r="N301" t="n">
-        <v>15.18600000000001</v>
+        <v>1</v>
       </c>
       <c r="O301" t="n">
-        <v>1</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P301" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q301" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -16458,18 +15553,15 @@
         <v>0</v>
       </c>
       <c r="M302" t="n">
-        <v>0</v>
+        <v>5.354000000000017</v>
       </c>
       <c r="N302" t="n">
-        <v>5.354000000000017</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="O302" t="n">
-        <v>0.1428571428571428</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P302" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q302" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -16511,18 +15603,15 @@
         <v>12.89</v>
       </c>
       <c r="M303" t="n">
-        <v>0</v>
+        <v>12.98100000000001</v>
       </c>
       <c r="N303" t="n">
-        <v>12.98100000000001</v>
+        <v>1</v>
       </c>
       <c r="O303" t="n">
-        <v>1</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P303" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q303" t="n">
         <v>0.67</v>
       </c>
     </row>
@@ -16564,18 +15653,15 @@
         <v>12.89</v>
       </c>
       <c r="M304" t="n">
-        <v>0</v>
+        <v>3.149000000000012</v>
       </c>
       <c r="N304" t="n">
-        <v>3.149000000000012</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="O304" t="n">
-        <v>0.1428571428571428</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P304" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q304" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -16617,18 +15703,15 @@
         <v>0</v>
       </c>
       <c r="M305" t="n">
-        <v>0</v>
+        <v>10.39000000000001</v>
       </c>
       <c r="N305" t="n">
-        <v>10.39000000000001</v>
+        <v>0</v>
       </c>
       <c r="O305" t="n">
-        <v>0</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P305" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q305" t="n">
         <v>0.396</v>
       </c>
     </row>
@@ -16670,18 +15753,15 @@
         <v>0</v>
       </c>
       <c r="M306" t="n">
-        <v>0</v>
+        <v>8.831000000000024</v>
       </c>
       <c r="N306" t="n">
-        <v>8.831000000000024</v>
+        <v>0</v>
       </c>
       <c r="O306" t="n">
-        <v>0</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P306" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q306" t="n">
         <v>0.505</v>
       </c>
     </row>
@@ -16723,18 +15803,15 @@
         <v>0</v>
       </c>
       <c r="M307" t="n">
-        <v>0</v>
+        <v>10.09100000000002</v>
       </c>
       <c r="N307" t="n">
-        <v>10.09100000000002</v>
+        <v>0</v>
       </c>
       <c r="O307" t="n">
-        <v>0</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P307" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q307" t="n">
         <v>0.438</v>
       </c>
     </row>
@@ -16776,18 +15853,15 @@
         <v>0</v>
       </c>
       <c r="M308" t="n">
-        <v>0</v>
+        <v>5.354000000000017</v>
       </c>
       <c r="N308" t="n">
-        <v>5.354000000000017</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="O308" t="n">
-        <v>0.1428571428571428</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P308" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q308" t="n">
         <v>0.432</v>
       </c>
     </row>
@@ -16829,18 +15903,15 @@
         <v>67.14</v>
       </c>
       <c r="M309" t="n">
-        <v>3</v>
+        <v>14.5105</v>
       </c>
       <c r="N309" t="n">
-        <v>14.5105</v>
+        <v>0</v>
       </c>
       <c r="O309" t="n">
-        <v>0</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P309" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q309" t="n">
         <v>3.5</v>
       </c>
     </row>
@@ -16882,18 +15953,15 @@
         <v>79.67</v>
       </c>
       <c r="M310" t="n">
-        <v>0</v>
+        <v>18.6705</v>
       </c>
       <c r="N310" t="n">
-        <v>18.6705</v>
+        <v>0</v>
       </c>
       <c r="O310" t="n">
-        <v>0</v>
+        <v>3.35401643468053</v>
       </c>
       <c r="P310" t="n">
-        <v>3.35401643468053</v>
-      </c>
-      <c r="Q310" t="n">
         <v>3</v>
       </c>
     </row>
@@ -16935,18 +16003,15 @@
         <v>57.53</v>
       </c>
       <c r="M311" t="n">
-        <v>0</v>
+        <v>5.694399999999987</v>
       </c>
       <c r="N311" t="n">
-        <v>5.694399999999987</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O311" t="n">
-        <v>0.6666666666666666</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P311" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q311" t="n">
         <v>0.8196759338222754</v>
       </c>
     </row>
@@ -16988,18 +16053,15 @@
         <v>57.53</v>
       </c>
       <c r="M312" t="n">
-        <v>0</v>
+        <v>5.694399999999987</v>
       </c>
       <c r="N312" t="n">
-        <v>5.694399999999987</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O312" t="n">
-        <v>0.6666666666666666</v>
+        <v>3.298697014679202</v>
       </c>
       <c r="P312" t="n">
-        <v>3.298697014679202</v>
-      </c>
-      <c r="Q312" t="n">
         <v>0.7768035625927761</v>
       </c>
     </row>
@@ -17041,18 +16103,15 @@
         <v>57.53</v>
       </c>
       <c r="M313" t="n">
-        <v>0</v>
+        <v>5.694399999999987</v>
       </c>
       <c r="N313" t="n">
-        <v>5.694399999999987</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O313" t="n">
-        <v>0.6666666666666666</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P313" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q313" t="n">
         <v>0.73666932779818</v>
       </c>
     </row>
@@ -17094,18 +16153,15 @@
         <v>57.53</v>
       </c>
       <c r="M314" t="n">
-        <v>0</v>
+        <v>5.694399999999987</v>
       </c>
       <c r="N314" t="n">
-        <v>5.694399999999987</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O314" t="n">
-        <v>0.6666666666666666</v>
+        <v>3.094538140182578</v>
       </c>
       <c r="P314" t="n">
-        <v>3.094538140182578</v>
-      </c>
-      <c r="Q314" t="n">
         <v>0.6990190314095621</v>
       </c>
     </row>
@@ -17147,18 +16203,15 @@
         <v>57.53</v>
       </c>
       <c r="M315" t="n">
-        <v>0</v>
+        <v>5.694399999999987</v>
       </c>
       <c r="N315" t="n">
-        <v>5.694399999999987</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O315" t="n">
-        <v>0.6666666666666666</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P315" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q315" t="n">
         <v>0.7120126215248168</v>
       </c>
     </row>
@@ -17200,18 +16253,15 @@
         <v>57.53</v>
       </c>
       <c r="M316" t="n">
-        <v>0</v>
+        <v>5.694399999999987</v>
       </c>
       <c r="N316" t="n">
-        <v>5.694399999999987</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O316" t="n">
-        <v>0.6666666666666666</v>
+        <v>3.298697014679202</v>
       </c>
       <c r="P316" t="n">
-        <v>3.298697014679202</v>
-      </c>
-      <c r="Q316" t="n">
         <v>0.665764473033152</v>
       </c>
     </row>
@@ -17253,18 +16303,15 @@
         <v>57.53</v>
       </c>
       <c r="M317" t="n">
-        <v>0</v>
+        <v>5.694399999999987</v>
       </c>
       <c r="N317" t="n">
-        <v>5.694399999999987</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O317" t="n">
-        <v>0.6666666666666666</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P317" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q317" t="n">
         <v>0.6224700622704775</v>
       </c>
     </row>
@@ -17306,18 +16353,15 @@
         <v>57.53</v>
       </c>
       <c r="M318" t="n">
-        <v>0</v>
+        <v>5.694399999999987</v>
       </c>
       <c r="N318" t="n">
-        <v>5.694399999999987</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O318" t="n">
-        <v>0.6666666666666666</v>
+        <v>3.094538140182578</v>
       </c>
       <c r="P318" t="n">
-        <v>3.094538140182578</v>
-      </c>
-      <c r="Q318" t="n">
         <v>0.5818551756150396</v>
       </c>
     </row>
@@ -17359,18 +16403,15 @@
         <v>57.53</v>
       </c>
       <c r="M319" t="n">
-        <v>0</v>
+        <v>5.694399999999987</v>
       </c>
       <c r="N319" t="n">
-        <v>5.694399999999987</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O319" t="n">
-        <v>0.6666666666666666</v>
+        <v>3.411222923418046</v>
       </c>
       <c r="P319" t="n">
-        <v>3.411222923418046</v>
-      </c>
-      <c r="Q319" t="n">
         <v>0.4325720620842573</v>
       </c>
     </row>
@@ -17412,18 +16453,15 @@
         <v>57.53</v>
       </c>
       <c r="M320" t="n">
-        <v>0</v>
+        <v>5.694399999999987</v>
       </c>
       <c r="N320" t="n">
-        <v>5.694399999999987</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O320" t="n">
-        <v>0.6666666666666666</v>
+        <v>3.298697014679202</v>
       </c>
       <c r="P320" t="n">
-        <v>3.298697014679202</v>
-      </c>
-      <c r="Q320" t="n">
         <v>0.4047781626257629</v>
       </c>
     </row>
@@ -17465,18 +16503,15 @@
         <v>57.53</v>
       </c>
       <c r="M321" t="n">
-        <v>0</v>
+        <v>5.694399999999987</v>
       </c>
       <c r="N321" t="n">
-        <v>5.694399999999987</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O321" t="n">
-        <v>0.6666666666666666</v>
+        <v>3.193357815743254</v>
       </c>
       <c r="P321" t="n">
-        <v>3.193357815743254</v>
-      </c>
-      <c r="Q321" t="n">
         <v>0.3787593804885839</v>
       </c>
     </row>
@@ -17518,18 +16553,15 @@
         <v>57.53</v>
       </c>
       <c r="M322" t="n">
-        <v>0</v>
+        <v>5.694399999999987</v>
       </c>
       <c r="N322" t="n">
-        <v>5.694399999999987</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O322" t="n">
-        <v>0.6666666666666666</v>
+        <v>3.094538140182578</v>
       </c>
       <c r="P322" t="n">
-        <v>3.094538140182578</v>
-      </c>
-      <c r="Q322" t="n">
         <v>0.3543509206250968</v>
       </c>
     </row>
